--- a/data/china_ie_partner/2019-11.xlsx
+++ b/data/china_ie_partner/2019-11.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Downloads/china_ie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Documents/GitHub/ada-2020-project-milestone-p3-p3_lovela-data-science/data/china_ie_partner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A7EED7-8C71-8D44-AACB-10A90358C16A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43C9635-7F33-BF43-98AB-30E1C8E4E5F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="16400" xr2:uid="{8F74DAF6-1138-2E45-873E-CC3CE452E3A4}"/>
   </bookViews>
@@ -36,666 +36,9 @@
     <t>进口</t>
   </si>
   <si>
-    <t>阿富汗</t>
-  </si>
-  <si>
-    <t>巴林</t>
-  </si>
-  <si>
-    <t>孟加拉国</t>
-  </si>
-  <si>
-    <t>不丹</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>文莱</t>
-  </si>
-  <si>
-    <t>缅甸</t>
-  </si>
-  <si>
-    <t>柬埔寨</t>
-  </si>
-  <si>
-    <t>塞浦路斯</t>
-  </si>
-  <si>
-    <t>朝鲜</t>
-  </si>
-  <si>
-    <t>印度</t>
-  </si>
-  <si>
-    <t>印度尼西亚</t>
-  </si>
-  <si>
-    <t>伊朗</t>
-  </si>
-  <si>
-    <t>伊拉克</t>
-  </si>
-  <si>
-    <t>以色列</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>约旦</t>
-  </si>
-  <si>
-    <t>科威特</t>
-  </si>
-  <si>
-    <t>老挝</t>
-  </si>
-  <si>
-    <t>黎巴嫩</t>
-  </si>
-  <si>
-    <t>马尔代夫</t>
-  </si>
-  <si>
-    <t>蒙古</t>
-  </si>
-  <si>
-    <t>阿曼</t>
-  </si>
-  <si>
-    <t>巴基斯坦</t>
-  </si>
-  <si>
-    <t>巴勒斯坦</t>
-  </si>
-  <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
-    <t>卡塔尔</t>
-  </si>
-  <si>
-    <t>沙特阿拉伯</t>
-  </si>
-  <si>
-    <t>新加坡</t>
-  </si>
-  <si>
-    <t>韩国</t>
-  </si>
-  <si>
-    <t>斯里兰卡</t>
-  </si>
-  <si>
-    <t>叙利亚</t>
-  </si>
-  <si>
-    <t>泰国</t>
-  </si>
-  <si>
-    <t>土耳其</t>
-  </si>
-  <si>
-    <t>阿联酋</t>
-  </si>
-  <si>
-    <t>也门</t>
-  </si>
-  <si>
-    <t>越南</t>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>东帝汶</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>吉尔吉斯斯坦</t>
-  </si>
-  <si>
-    <t>塔吉克斯坦</t>
-  </si>
-  <si>
-    <t>土库曼斯坦</t>
-  </si>
-  <si>
-    <t>亚洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>阿尔及利亚</t>
-  </si>
-  <si>
-    <t>安哥拉</t>
-  </si>
-  <si>
-    <t>贝宁</t>
-  </si>
-  <si>
-    <t>博茨瓦纳</t>
-  </si>
-  <si>
-    <t>布隆迪</t>
-  </si>
-  <si>
-    <t>加那利群岛</t>
-  </si>
-  <si>
-    <t>佛得角</t>
-  </si>
-  <si>
-    <t>中非</t>
-  </si>
-  <si>
-    <t>塞卜泰(休达)</t>
-  </si>
-  <si>
-    <t>乍得</t>
-  </si>
-  <si>
-    <t>科摩罗</t>
-  </si>
-  <si>
-    <t>刚果(布)</t>
-  </si>
-  <si>
-    <t>吉布提</t>
-  </si>
-  <si>
-    <t>埃及</t>
-  </si>
-  <si>
-    <t>赤道几内亚</t>
-  </si>
-  <si>
-    <t>埃塞俄比亚</t>
-  </si>
-  <si>
-    <t>加蓬</t>
-  </si>
-  <si>
-    <t>冈比亚</t>
-  </si>
-  <si>
-    <t>加纳</t>
-  </si>
-  <si>
-    <t>几内亚</t>
-  </si>
-  <si>
-    <t>几内亚比绍</t>
-  </si>
-  <si>
-    <t>科特迪瓦</t>
-  </si>
-  <si>
-    <t>肯尼亚</t>
-  </si>
-  <si>
-    <t>利比里亚</t>
-  </si>
-  <si>
-    <t>利比亚</t>
-  </si>
-  <si>
-    <t>马达加斯加</t>
-  </si>
-  <si>
-    <t>马拉维</t>
-  </si>
-  <si>
-    <t>毛里塔尼亚</t>
-  </si>
-  <si>
-    <t>毛里求斯</t>
-  </si>
-  <si>
-    <t>摩洛哥</t>
-  </si>
-  <si>
-    <t>莫桑比克</t>
-  </si>
-  <si>
-    <t>纳米比亚</t>
-  </si>
-  <si>
-    <t>尼日尔</t>
-  </si>
-  <si>
-    <t>尼日利亚</t>
-  </si>
-  <si>
-    <t>留尼汪</t>
-  </si>
-  <si>
-    <t>卢旺达</t>
-  </si>
-  <si>
-    <t>圣多美和普林西比</t>
-  </si>
-  <si>
-    <t>塞内加尔</t>
-  </si>
-  <si>
-    <t>塞舌尔</t>
-  </si>
-  <si>
-    <t>塞拉利昂</t>
-  </si>
-  <si>
-    <t>索马里</t>
-  </si>
-  <si>
-    <t>西撒哈拉</t>
-  </si>
-  <si>
-    <t>苏丹</t>
-  </si>
-  <si>
-    <t>坦桑尼亚</t>
-  </si>
-  <si>
-    <t>多哥</t>
-  </si>
-  <si>
-    <t>突尼斯</t>
-  </si>
-  <si>
-    <t>乌干达</t>
-  </si>
-  <si>
-    <t>布基纳法索</t>
-  </si>
-  <si>
-    <t>刚果(金)</t>
-  </si>
-  <si>
-    <t>津巴布韦</t>
-  </si>
-  <si>
-    <t>梅利利亚</t>
-  </si>
-  <si>
-    <t>斯威士兰</t>
-  </si>
-  <si>
-    <t>厄立特里亚</t>
-  </si>
-  <si>
-    <t>马约特</t>
-  </si>
-  <si>
-    <t>南苏丹共和国</t>
-  </si>
-  <si>
-    <t>非洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>比利时</t>
-  </si>
-  <si>
-    <t>丹麦</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>爱尔兰</t>
-  </si>
-  <si>
-    <t>意大利</t>
-  </si>
-  <si>
-    <t>卢森堡</t>
-  </si>
-  <si>
-    <t>荷兰</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚</t>
-  </si>
-  <si>
-    <t>奥地利</t>
-  </si>
-  <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
-    <t>芬兰</t>
-  </si>
-  <si>
-    <t>直布罗陀</t>
-  </si>
-  <si>
-    <t>匈牙利</t>
-  </si>
-  <si>
-    <t>冰岛</t>
-  </si>
-  <si>
-    <t>列支敦士登</t>
-  </si>
-  <si>
-    <t>马耳他</t>
-  </si>
-  <si>
-    <t>摩纳哥</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>波兰</t>
-  </si>
-  <si>
-    <t>罗马尼亚</t>
-  </si>
-  <si>
-    <t>圣马力诺</t>
-  </si>
-  <si>
-    <t>瑞典</t>
-  </si>
-  <si>
-    <t>瑞士</t>
-  </si>
-  <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
-    <t>拉脱维亚</t>
-  </si>
-  <si>
-    <t>格鲁吉亚</t>
-  </si>
-  <si>
-    <t>亚美尼亚</t>
-  </si>
-  <si>
-    <t>阿塞拜疆</t>
-  </si>
-  <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
-    <t>俄罗斯联邦</t>
-  </si>
-  <si>
-    <t>克罗地亚</t>
-  </si>
-  <si>
-    <t>捷克</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>波黑</t>
-  </si>
-  <si>
-    <t>梵蒂冈城国</t>
-  </si>
-  <si>
-    <t>法罗群岛</t>
-  </si>
-  <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>黑山</t>
-  </si>
-  <si>
-    <t>拉丁美洲</t>
-  </si>
-  <si>
-    <t>安提瓜和巴布达</t>
-  </si>
-  <si>
-    <t>阿根廷</t>
-  </si>
-  <si>
-    <t>阿鲁巴</t>
-  </si>
-  <si>
-    <t>巴哈马</t>
-  </si>
-  <si>
-    <t>巴巴多斯</t>
-  </si>
-  <si>
-    <t>伯利兹</t>
-  </si>
-  <si>
-    <t>玻利维亚</t>
-  </si>
-  <si>
-    <t>博内尔</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>开曼群岛</t>
-  </si>
-  <si>
-    <t>智利</t>
-  </si>
-  <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
-    <t>多米尼克</t>
-  </si>
-  <si>
-    <t>哥斯达黎加</t>
-  </si>
-  <si>
-    <t>古巴</t>
-  </si>
-  <si>
-    <t>库腊索岛</t>
-  </si>
-  <si>
-    <t>多米尼加共和国</t>
-  </si>
-  <si>
-    <t>厄瓜多尔</t>
-  </si>
-  <si>
-    <t>法属圭亚那</t>
-  </si>
-  <si>
-    <t>格林纳达</t>
-  </si>
-  <si>
-    <t>瓜德罗普</t>
-  </si>
-  <si>
-    <t>危地马拉</t>
-  </si>
-  <si>
-    <t>圭亚那</t>
-  </si>
-  <si>
-    <t>海地</t>
-  </si>
-  <si>
-    <t>洪都拉斯</t>
-  </si>
-  <si>
-    <t>牙买加</t>
-  </si>
-  <si>
-    <t>马提尼克</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>蒙特塞拉特</t>
-  </si>
-  <si>
-    <t>尼加拉瓜</t>
-  </si>
-  <si>
-    <t>巴拿马</t>
-  </si>
-  <si>
-    <t>巴拉圭</t>
-  </si>
-  <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
-    <t>圣卢西亚</t>
-  </si>
-  <si>
-    <t>圣马丁岛</t>
-  </si>
-  <si>
-    <t>圣文森特和格林纳丁斯</t>
-  </si>
-  <si>
-    <t>萨尔瓦多</t>
-  </si>
-  <si>
-    <t>特立尼达和多巴哥</t>
-  </si>
-  <si>
-    <t>特克斯和凯科斯群岛</t>
-  </si>
-  <si>
-    <t>委内瑞拉</t>
-  </si>
-  <si>
-    <t>英属维尔京群岛</t>
-  </si>
-  <si>
-    <t>圣基茨和尼维斯</t>
-  </si>
-  <si>
-    <t>圣皮埃尔和密克隆</t>
-  </si>
-  <si>
-    <t>荷属安的列斯</t>
-  </si>
-  <si>
-    <t>拉丁美洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>北美洲</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>百慕大</t>
-  </si>
-  <si>
-    <t>北美洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>斐济</t>
-  </si>
-  <si>
-    <t>盖比群岛</t>
-  </si>
-  <si>
-    <t>马克萨斯群岛</t>
-  </si>
-  <si>
-    <t>新喀里多尼亚</t>
-  </si>
-  <si>
-    <t>瓦努阿图</t>
-  </si>
-  <si>
-    <t>新西兰</t>
-  </si>
-  <si>
-    <t>诺福克岛</t>
-  </si>
-  <si>
-    <t>社会群岛</t>
-  </si>
-  <si>
-    <t>所罗门群岛</t>
-  </si>
-  <si>
-    <t>汤加</t>
-  </si>
-  <si>
-    <t>土阿莫土群岛</t>
-  </si>
-  <si>
-    <t>土布艾群岛</t>
-  </si>
-  <si>
-    <t>萨摩亚</t>
-  </si>
-  <si>
-    <t>基里巴斯</t>
-  </si>
-  <si>
-    <t>图瓦卢</t>
-  </si>
-  <si>
-    <t>密克罗尼西亚联邦</t>
-  </si>
-  <si>
-    <t>马绍尔群岛</t>
-  </si>
-  <si>
-    <t>帕劳</t>
-  </si>
-  <si>
-    <t>法属波利尼西亚</t>
-  </si>
-  <si>
-    <t>瓦利斯和浮图纳</t>
-  </si>
-  <si>
-    <t>国(地)别不详的</t>
-  </si>
-  <si>
-    <t>中国香港</t>
-  </si>
-  <si>
-    <t>马来西亚 </t>
-  </si>
-  <si>
-    <t>中国台湾</t>
-  </si>
-  <si>
     <t>month</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -703,79 +46,980 @@
     <t>year</t>
   </si>
   <si>
-    <t>澳门</t>
-  </si>
-  <si>
-    <t>尼泊尔联邦民主共和国</t>
-  </si>
-  <si>
-    <t>乌兹别克斯坦</t>
-  </si>
-  <si>
-    <t>喀麦隆</t>
-  </si>
-  <si>
-    <t>马里</t>
-  </si>
-  <si>
-    <t>南非</t>
-  </si>
-  <si>
-    <t>赞比亚</t>
-  </si>
-  <si>
-    <t>莱索托</t>
-  </si>
-  <si>
-    <t>安道尔</t>
-  </si>
-  <si>
-    <t>立陶宛</t>
-  </si>
-  <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
-    <t>斯洛文尼亚</t>
-  </si>
-  <si>
-    <t>前南马其顿</t>
-  </si>
-  <si>
-    <t>欧洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>萨巴</t>
-  </si>
-  <si>
-    <t>苏里南</t>
-  </si>
-  <si>
-    <t>乌拉圭</t>
-  </si>
-  <si>
-    <t>格陵兰</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>澳大利亚</t>
-  </si>
-  <si>
-    <t>库克群岛</t>
-  </si>
-  <si>
-    <t>瑙鲁</t>
-  </si>
-  <si>
-    <t>巴布亚新几内亚</t>
-  </si>
-  <si>
-    <t>大洋洲其他国家(地区)</t>
+    <t>Afghanistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahrian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bhutan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brunei</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myanmar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cambodia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyprus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea,DPR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Hong Kong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>India</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indonesia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iran</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iraq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Israel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Japan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jordan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kuwait</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lao PDR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lebanon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Macau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malaysia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maldives</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mongolia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nepal,FDR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pakistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palestine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Philippines</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qatar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singapore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea,Rep.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thailand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yemen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Taiwan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Asia nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Africa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algeria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angola</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Botswana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burundi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cameroon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canary Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central African Rep.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceuta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comoros</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Djibouti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egypt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gabon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guinea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kenya</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liberia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Libyan Arab Jamahiriya</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Madagascar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malawi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mali</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauritania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauritius</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Morocco</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mozambique</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Namibia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Niger</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nigeria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reunion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rwanda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senegal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seychelles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Somalia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Africa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sudan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tanzania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Togo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tunisia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uganda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congo,DR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zambia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lesotho</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melilla</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swaziland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eritrea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mayotte</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Republic of South Sudan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Afr.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belgium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Denmark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germany</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>France</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ireland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Italy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greece</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portugal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Albania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andorra</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Austria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hungary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iceland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monaco</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norway</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Romania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Marino</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweden</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switzerland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estonia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latvia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lithuania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Georgia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armenia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belarus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moldova</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukraine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovenia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Croatia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovakia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Macedonia,FYR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bosnia and Hercegovina</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vatican City State</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serbia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montenegro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Eur.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latin America</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Argentina</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aruba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahamas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barbados</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bolivia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bonaire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brazil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colombia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dominica</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cuba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curacao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ecuador</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>French Guiana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grenada</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guatemala</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guyana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haiti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honduras</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jamaica</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Martinique</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mexico</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montserrat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panama</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paraguay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peru</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Martin Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Vincent&amp;Grenadines</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>El Salvador</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suriname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turks&amp;Caicos Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uruguay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venezuela</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Virgin Islands,British</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Kitts&amp;Nevis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Pierre&amp;Miquelon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.L.Amer.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>North America</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canada</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>United States</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greenland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bermuda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.N.Amer.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oceania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fiji</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambier Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marquesas Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nauru</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Zealand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Society Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tonga</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuamotu Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tubai Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samoa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kiribati</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micronesia,FS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Ocean.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Countries(reg.)unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -838,10 +1082,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1227,24 +1472,24 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>224</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>223</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
+      <c r="A2" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="3">
-        <v>48654</v>
+        <v>68791</v>
       </c>
       <c r="C2" s="3">
-        <v>42494</v>
+        <v>60084</v>
       </c>
       <c r="D2" s="3">
-        <v>6160</v>
+        <v>8707</v>
       </c>
       <c r="E2" s="6">
         <v>2019</v>
@@ -1258,17 +1503,17 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
+      <c r="A3" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="3">
-        <v>97886</v>
+        <v>138383</v>
       </c>
       <c r="C3" s="3">
-        <v>76093</v>
+        <v>107577</v>
       </c>
       <c r="D3" s="3">
-        <v>21793</v>
+        <v>30806</v>
       </c>
       <c r="E3" s="6">
         <v>2019</v>
@@ -1282,17 +1527,17 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
+      <c r="A4" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="3">
-        <v>1126746</v>
+        <v>1593128</v>
       </c>
       <c r="C4" s="3">
-        <v>1071254</v>
+        <v>1514628</v>
       </c>
       <c r="D4" s="3">
-        <v>55493</v>
+        <v>78499</v>
       </c>
       <c r="E4" s="6">
         <v>2019</v>
@@ -1306,17 +1551,17 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="21">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
+      <c r="A5" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>540</v>
+        <v>764</v>
       </c>
       <c r="C5" s="2">
-        <v>539</v>
+        <v>762</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="6">
         <v>2019</v>
@@ -1330,17 +1575,17 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="21">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
+      <c r="A6" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="B6" s="3">
-        <v>51738</v>
+        <v>73144</v>
       </c>
       <c r="C6" s="3">
-        <v>36898</v>
+        <v>52168</v>
       </c>
       <c r="D6" s="3">
-        <v>14840</v>
+        <v>20976</v>
       </c>
       <c r="E6" s="6">
         <v>2019</v>
@@ -1354,17 +1599,17 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="5" t="s">
-        <v>9</v>
+      <c r="A7" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="3">
-        <v>1195555</v>
+        <v>1692142</v>
       </c>
       <c r="C7" s="3">
-        <v>801072</v>
+        <v>1133745</v>
       </c>
       <c r="D7" s="3">
-        <v>394483</v>
+        <v>558398</v>
       </c>
       <c r="E7" s="6">
         <v>2019</v>
@@ -1378,17 +1623,17 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
+      <c r="A8" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="B8" s="3">
-        <v>592013</v>
+        <v>837112</v>
       </c>
       <c r="C8" s="3">
-        <v>507551</v>
+        <v>717618</v>
       </c>
       <c r="D8" s="3">
-        <v>84463</v>
+        <v>119494</v>
       </c>
       <c r="E8" s="6">
         <v>2019</v>
@@ -1402,17 +1647,17 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="21">
-      <c r="A9" s="5" t="s">
-        <v>11</v>
+      <c r="A9" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="B9" s="3">
-        <v>35742</v>
+        <v>50818</v>
       </c>
       <c r="C9" s="3">
-        <v>31250</v>
+        <v>44447</v>
       </c>
       <c r="D9" s="3">
-        <v>4493</v>
+        <v>6371</v>
       </c>
       <c r="E9" s="6">
         <v>2019</v>
@@ -1426,17 +1671,17 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="21">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
+      <c r="A10" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="B10" s="3">
-        <v>198413</v>
+        <v>280540</v>
       </c>
       <c r="C10" s="3">
-        <v>185352</v>
+        <v>262047</v>
       </c>
       <c r="D10" s="3">
-        <v>13061</v>
+        <v>18493</v>
       </c>
       <c r="E10" s="6">
         <v>2019</v>
@@ -1451,16 +1696,16 @@
     </row>
     <row r="11" spans="1:10" ht="21">
       <c r="A11" s="8" t="s">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3">
-        <v>19363707</v>
+        <v>27385251</v>
       </c>
       <c r="C11" s="3">
-        <v>18854853</v>
+        <v>26664816</v>
       </c>
       <c r="D11" s="3">
-        <v>508854</v>
+        <v>720434</v>
       </c>
       <c r="E11" s="6">
         <v>2019</v>
@@ -1474,17 +1719,17 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="21">
-      <c r="A12" s="5" t="s">
-        <v>13</v>
+      <c r="A12" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="3">
-        <v>5307540</v>
+        <v>7506164</v>
       </c>
       <c r="C12" s="3">
-        <v>4222765</v>
+        <v>5971992</v>
       </c>
       <c r="D12" s="3">
-        <v>1084774</v>
+        <v>1534172</v>
       </c>
       <c r="E12" s="6">
         <v>2019</v>
@@ -1498,17 +1743,17 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="5" t="s">
-        <v>14</v>
+      <c r="A13" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="B13" s="3">
-        <v>5551157</v>
+        <v>7850568</v>
       </c>
       <c r="C13" s="3">
-        <v>3280611</v>
+        <v>4639553</v>
       </c>
       <c r="D13" s="3">
-        <v>2270546</v>
+        <v>3211015</v>
       </c>
       <c r="E13" s="6">
         <v>2019</v>
@@ -1522,17 +1767,17 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="5" t="s">
-        <v>15</v>
+      <c r="A14" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="B14" s="3">
-        <v>1220676</v>
+        <v>1728492</v>
       </c>
       <c r="C14" s="3">
-        <v>636784</v>
+        <v>901993</v>
       </c>
       <c r="D14" s="3">
-        <v>583892</v>
+        <v>826498</v>
       </c>
       <c r="E14" s="6">
         <v>2019</v>
@@ -1546,17 +1791,17 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="5" t="s">
-        <v>16</v>
+      <c r="A15" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="B15" s="3">
-        <v>2412485</v>
+        <v>3410598</v>
       </c>
       <c r="C15" s="3">
-        <v>599145</v>
+        <v>846982</v>
       </c>
       <c r="D15" s="3">
-        <v>1813340</v>
+        <v>2563616</v>
       </c>
       <c r="E15" s="6">
         <v>2019</v>
@@ -1570,17 +1815,17 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="21">
-      <c r="A16" s="5" t="s">
-        <v>17</v>
+      <c r="A16" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="B16" s="3">
-        <v>912527</v>
+        <v>1290127</v>
       </c>
       <c r="C16" s="3">
-        <v>562702</v>
+        <v>795528</v>
       </c>
       <c r="D16" s="3">
-        <v>349825</v>
+        <v>494599</v>
       </c>
       <c r="E16" s="6">
         <v>2019</v>
@@ -1594,17 +1839,17 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="21">
-      <c r="A17" s="5" t="s">
-        <v>18</v>
+      <c r="A17" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="B17" s="3">
-        <v>19923372</v>
+        <v>28180145</v>
       </c>
       <c r="C17" s="3">
-        <v>9110082</v>
+        <v>12885380</v>
       </c>
       <c r="D17" s="3">
-        <v>10813289</v>
+        <v>15294766</v>
       </c>
       <c r="E17" s="6">
         <v>2019</v>
@@ -1618,17 +1863,17 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" ht="21">
-      <c r="A18" s="5" t="s">
-        <v>19</v>
+      <c r="A18" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="B18" s="3">
-        <v>262782</v>
+        <v>371478</v>
       </c>
       <c r="C18" s="3">
-        <v>250771</v>
+        <v>354496</v>
       </c>
       <c r="D18" s="3">
-        <v>12011</v>
+        <v>16982</v>
       </c>
       <c r="E18" s="6">
         <v>2019</v>
@@ -1642,17 +1887,17 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="21">
-      <c r="A19" s="5" t="s">
-        <v>20</v>
+      <c r="A19" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="B19" s="3">
-        <v>990973</v>
+        <v>1400800</v>
       </c>
       <c r="C19" s="3">
-        <v>215449</v>
+        <v>304586</v>
       </c>
       <c r="D19" s="3">
-        <v>775524</v>
+        <v>1096214</v>
       </c>
       <c r="E19" s="6">
         <v>2019</v>
@@ -1666,17 +1911,17 @@
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="21">
-      <c r="A20" s="5" t="s">
-        <v>21</v>
+      <c r="A20" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="B20" s="3">
-        <v>248593</v>
+        <v>351865</v>
       </c>
       <c r="C20" s="3">
-        <v>119241</v>
+        <v>168692</v>
       </c>
       <c r="D20" s="3">
-        <v>129352</v>
+        <v>183173</v>
       </c>
       <c r="E20" s="6">
         <v>2019</v>
@@ -1690,17 +1935,17 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="21">
-      <c r="A21" s="5" t="s">
-        <v>22</v>
+      <c r="A21" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="B21" s="3">
-        <v>66009</v>
+        <v>93326</v>
       </c>
       <c r="C21" s="3">
-        <v>63566</v>
+        <v>89872</v>
       </c>
       <c r="D21" s="3">
-        <v>2443</v>
+        <v>3454</v>
       </c>
       <c r="E21" s="6">
         <v>2019</v>
@@ -1714,17 +1959,17 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="21">
-      <c r="A22" s="5" t="s">
-        <v>225</v>
+      <c r="A22" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="B22" s="3">
-        <v>180525</v>
+        <v>255260</v>
       </c>
       <c r="C22" s="3">
-        <v>175331</v>
+        <v>247911</v>
       </c>
       <c r="D22" s="3">
-        <v>5194</v>
+        <v>7349</v>
       </c>
       <c r="E22" s="6">
         <v>2019</v>
@@ -1738,17 +1983,17 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="21">
-      <c r="A23" s="5" t="s">
-        <v>221</v>
+      <c r="A23" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="B23" s="3">
-        <v>7789364</v>
+        <v>11015614</v>
       </c>
       <c r="C23" s="3">
-        <v>3453364</v>
+        <v>4883661</v>
       </c>
       <c r="D23" s="3">
-        <v>4336001</v>
+        <v>6131953</v>
       </c>
       <c r="E23" s="6">
         <v>2019</v>
@@ -1762,17 +2007,17 @@
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="5" t="s">
-        <v>23</v>
+      <c r="A24" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="B24" s="3">
-        <v>21309</v>
+        <v>30125</v>
       </c>
       <c r="C24" s="3">
-        <v>21301</v>
+        <v>30113</v>
       </c>
       <c r="D24" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E24" s="6">
         <v>2019</v>
@@ -1786,17 +2031,17 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="5" t="s">
-        <v>24</v>
+      <c r="A25" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="B25" s="3">
-        <v>441762</v>
+        <v>625419</v>
       </c>
       <c r="C25" s="3">
-        <v>99588</v>
+        <v>140970</v>
       </c>
       <c r="D25" s="3">
-        <v>342175</v>
+        <v>484450</v>
       </c>
       <c r="E25" s="6">
         <v>2019</v>
@@ -1810,17 +2055,17 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="21">
-      <c r="A26" s="5" t="s">
-        <v>226</v>
+      <c r="A26" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="B26" s="3">
-        <v>114048</v>
+        <v>161426</v>
       </c>
       <c r="C26" s="3">
-        <v>112689</v>
+        <v>159501</v>
       </c>
       <c r="D26" s="3">
-        <v>1359</v>
+        <v>1925</v>
       </c>
       <c r="E26" s="6">
         <v>2019</v>
@@ -1834,17 +2079,17 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="21">
-      <c r="A27" s="5" t="s">
-        <v>25</v>
+      <c r="A27" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="B27" s="3">
-        <v>1687768</v>
+        <v>2385860</v>
       </c>
       <c r="C27" s="3">
-        <v>200484</v>
+        <v>283482</v>
       </c>
       <c r="D27" s="3">
-        <v>1487284</v>
+        <v>2102378</v>
       </c>
       <c r="E27" s="6">
         <v>2019</v>
@@ -1858,17 +2103,17 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="21">
-      <c r="A28" s="5" t="s">
-        <v>26</v>
+      <c r="A28" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="B28" s="3">
-        <v>1309108</v>
+        <v>1850955</v>
       </c>
       <c r="C28" s="3">
-        <v>1207250</v>
+        <v>1706902</v>
       </c>
       <c r="D28" s="3">
-        <v>101859</v>
+        <v>144053</v>
       </c>
       <c r="E28" s="6">
         <v>2019</v>
@@ -1882,17 +2127,17 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="5" t="s">
-        <v>27</v>
+      <c r="A29" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="B29" s="3">
-        <v>4521</v>
+        <v>6391</v>
       </c>
       <c r="C29" s="3">
-        <v>4521</v>
+        <v>6391</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E29" s="6">
         <v>2019</v>
@@ -1906,17 +2151,17 @@
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" ht="21">
-      <c r="A30" s="5" t="s">
-        <v>28</v>
+      <c r="A30" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="B30" s="3">
-        <v>4060604</v>
+        <v>5742905</v>
       </c>
       <c r="C30" s="3">
-        <v>2866979</v>
+        <v>4055149</v>
       </c>
       <c r="D30" s="3">
-        <v>1193625</v>
+        <v>1687756</v>
       </c>
       <c r="E30" s="6">
         <v>2019</v>
@@ -1930,17 +2175,17 @@
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="5" t="s">
-        <v>29</v>
+      <c r="A31" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="B31" s="3">
-        <v>887515</v>
+        <v>1254762</v>
       </c>
       <c r="C31" s="3">
-        <v>140987</v>
+        <v>199343</v>
       </c>
       <c r="D31" s="3">
-        <v>746529</v>
+        <v>1055419</v>
       </c>
       <c r="E31" s="6">
         <v>2019</v>
@@ -1954,17 +2199,17 @@
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="5" t="s">
-        <v>30</v>
+      <c r="A32" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="B32" s="3">
-        <v>5074852</v>
+        <v>7173860</v>
       </c>
       <c r="C32" s="3">
-        <v>1570315</v>
+        <v>2220034</v>
       </c>
       <c r="D32" s="3">
-        <v>3504538</v>
+        <v>4953825</v>
       </c>
       <c r="E32" s="6">
         <v>2019</v>
@@ -1978,17 +2223,17 @@
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="21">
-      <c r="A33" s="5" t="s">
-        <v>31</v>
+      <c r="A33" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="B33" s="3">
-        <v>6318648</v>
+        <v>8937104</v>
       </c>
       <c r="C33" s="3">
-        <v>4085469</v>
+        <v>5779578</v>
       </c>
       <c r="D33" s="3">
-        <v>2233179</v>
+        <v>3157527</v>
       </c>
       <c r="E33" s="6">
         <v>2019</v>
@@ -2002,17 +2247,17 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="5" t="s">
-        <v>32</v>
+      <c r="A34" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="B34" s="3">
-        <v>17617943</v>
+        <v>24916101</v>
       </c>
       <c r="C34" s="3">
-        <v>6846598</v>
+        <v>9682658</v>
       </c>
       <c r="D34" s="3">
-        <v>10771345</v>
+        <v>15233443</v>
       </c>
       <c r="E34" s="6">
         <v>2019</v>
@@ -2026,17 +2271,17 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="21">
-      <c r="A35" s="5" t="s">
-        <v>33</v>
+      <c r="A35" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="B35" s="3">
-        <v>304911</v>
+        <v>431088</v>
       </c>
       <c r="C35" s="3">
-        <v>287667</v>
+        <v>406693</v>
       </c>
       <c r="D35" s="3">
-        <v>17244</v>
+        <v>24395</v>
       </c>
       <c r="E35" s="6">
         <v>2019</v>
@@ -2050,17 +2295,17 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="21">
-      <c r="A36" s="5" t="s">
-        <v>34</v>
+      <c r="A36" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="B36" s="3">
-        <v>75591</v>
+        <v>106860</v>
       </c>
       <c r="C36" s="3">
-        <v>75561</v>
+        <v>106818</v>
       </c>
       <c r="D36" s="2">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E36" s="6">
         <v>2019</v>
@@ -2074,17 +2319,17 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="21">
-      <c r="A37" s="5" t="s">
-        <v>35</v>
+      <c r="A37" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="B37" s="3">
-        <v>6046500</v>
+        <v>8550902</v>
       </c>
       <c r="C37" s="3">
-        <v>3209966</v>
+        <v>4539686</v>
       </c>
       <c r="D37" s="3">
-        <v>2836534</v>
+        <v>4011216</v>
       </c>
       <c r="E37" s="6">
         <v>2019</v>
@@ -2098,17 +2343,17 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="21">
-      <c r="A38" s="5" t="s">
-        <v>36</v>
+      <c r="A38" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="B38" s="3">
-        <v>1476740</v>
+        <v>2088521</v>
       </c>
       <c r="C38" s="3">
-        <v>1256497</v>
+        <v>1776846</v>
       </c>
       <c r="D38" s="3">
-        <v>220243</v>
+        <v>311675</v>
       </c>
       <c r="E38" s="6">
         <v>2019</v>
@@ -2122,17 +2367,17 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="5" t="s">
-        <v>37</v>
+      <c r="A39" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="B39" s="3">
-        <v>3095416</v>
+        <v>4376430</v>
       </c>
       <c r="C39" s="3">
-        <v>2261805</v>
+        <v>3197936</v>
       </c>
       <c r="D39" s="3">
-        <v>833610</v>
+        <v>1178493</v>
       </c>
       <c r="E39" s="6">
         <v>2019</v>
@@ -2146,17 +2391,17 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="5" t="s">
-        <v>38</v>
+      <c r="A40" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="B40" s="3">
-        <v>182100</v>
+        <v>257425</v>
       </c>
       <c r="C40" s="3">
-        <v>182097</v>
+        <v>257422</v>
       </c>
       <c r="D40" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40" s="6">
         <v>2019</v>
@@ -2170,17 +2415,17 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="21">
-      <c r="A41" s="5" t="s">
-        <v>39</v>
+      <c r="A41" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="B41" s="3">
-        <v>11615396</v>
+        <v>16431984</v>
       </c>
       <c r="C41" s="3">
-        <v>6768039</v>
+        <v>9574388</v>
       </c>
       <c r="D41" s="3">
-        <v>4847357</v>
+        <v>6857596</v>
       </c>
       <c r="E41" s="6">
         <v>2019</v>
@@ -2194,17 +2439,17 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" ht="21">
-      <c r="A42" s="5" t="s">
-        <v>40</v>
+      <c r="A42" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="B42" s="3">
-        <v>8460496</v>
+        <v>11963169</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D42" s="3">
-        <v>8460496</v>
+        <v>11963169</v>
       </c>
       <c r="E42" s="6">
         <v>2019</v>
@@ -2219,16 +2464,16 @@
     </row>
     <row r="43" spans="1:10" ht="21">
       <c r="A43" s="8" t="s">
-        <v>222</v>
+        <v>47</v>
       </c>
       <c r="B43" s="3">
-        <v>15284487</v>
+        <v>21611903</v>
       </c>
       <c r="C43" s="3">
-        <v>3451139</v>
+        <v>4881241</v>
       </c>
       <c r="D43" s="3">
-        <v>11833347</v>
+        <v>16730662</v>
       </c>
       <c r="E43" s="6">
         <v>2019</v>
@@ -2242,17 +2487,17 @@
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="5" t="s">
-        <v>41</v>
+      <c r="A44" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="B44" s="3">
-        <v>11832</v>
+        <v>16729</v>
       </c>
       <c r="C44" s="3">
-        <v>11428</v>
+        <v>16158</v>
       </c>
       <c r="D44" s="2">
-        <v>404</v>
+        <v>571</v>
       </c>
       <c r="E44" s="6">
         <v>2019</v>
@@ -2266,17 +2511,17 @@
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="5" t="s">
-        <v>42</v>
+      <c r="A45" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="B45" s="3">
-        <v>1402062</v>
+        <v>1982504</v>
       </c>
       <c r="C45" s="3">
-        <v>864515</v>
+        <v>1222567</v>
       </c>
       <c r="D45" s="3">
-        <v>537547</v>
+        <v>759937</v>
       </c>
       <c r="E45" s="6">
         <v>2019</v>
@@ -2290,17 +2535,17 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" ht="21">
-      <c r="A46" s="5" t="s">
-        <v>43</v>
+      <c r="A46" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="B46" s="3">
-        <v>495774</v>
+        <v>701079</v>
       </c>
       <c r="C46" s="3">
-        <v>490119</v>
+        <v>693077</v>
       </c>
       <c r="D46" s="3">
-        <v>5655</v>
+        <v>8003</v>
       </c>
       <c r="E46" s="6">
         <v>2019</v>
@@ -2314,17 +2559,17 @@
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10" ht="21">
-      <c r="A47" s="5" t="s">
-        <v>44</v>
+      <c r="A47" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="B47" s="3">
-        <v>129698</v>
+        <v>183369</v>
       </c>
       <c r="C47" s="3">
-        <v>122007</v>
+        <v>172495</v>
       </c>
       <c r="D47" s="3">
-        <v>7692</v>
+        <v>10874</v>
       </c>
       <c r="E47" s="6">
         <v>2019</v>
@@ -2338,17 +2583,17 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" ht="21">
-      <c r="A48" s="5" t="s">
-        <v>45</v>
+      <c r="A48" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="B48" s="3">
-        <v>493560</v>
+        <v>697669</v>
       </c>
       <c r="C48" s="3">
-        <v>29495</v>
+        <v>41710</v>
       </c>
       <c r="D48" s="3">
-        <v>464065</v>
+        <v>655959</v>
       </c>
       <c r="E48" s="6">
         <v>2019</v>
@@ -2362,17 +2607,17 @@
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10" ht="21">
-      <c r="A49" s="5" t="s">
-        <v>227</v>
+      <c r="A49" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="B49" s="3">
-        <v>456653</v>
+        <v>646218</v>
       </c>
       <c r="C49" s="3">
-        <v>338177</v>
+        <v>478744</v>
       </c>
       <c r="D49" s="3">
-        <v>118476</v>
+        <v>167474</v>
       </c>
       <c r="E49" s="6">
         <v>2019</v>
@@ -2386,17 +2631,17 @@
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" ht="21">
-      <c r="A50" s="5" t="s">
-        <v>46</v>
+      <c r="A50" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="B50" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C50" s="2">
         <v>2</v>
       </c>
       <c r="D50" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E50" s="6">
         <v>2019</v>
@@ -2410,17 +2655,17 @@
       <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:10" ht="21">
-      <c r="A51" s="5" t="s">
-        <v>47</v>
+      <c r="A51" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="B51" s="3">
-        <v>11776870</v>
+        <v>16656012</v>
       </c>
       <c r="C51" s="3">
-        <v>6760213</v>
+        <v>9561698</v>
       </c>
       <c r="D51" s="3">
-        <v>5016657</v>
+        <v>7094313</v>
       </c>
       <c r="E51" s="6">
         <v>2019</v>
@@ -2434,17 +2679,17 @@
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:10" ht="21">
-      <c r="A52" s="5" t="s">
-        <v>48</v>
+      <c r="A52" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="B52" s="3">
-        <v>391880</v>
+        <v>553987</v>
       </c>
       <c r="C52" s="3">
-        <v>331573</v>
+        <v>468742</v>
       </c>
       <c r="D52" s="3">
-        <v>60307</v>
+        <v>85246</v>
       </c>
       <c r="E52" s="6">
         <v>2019</v>
@@ -2458,17 +2703,17 @@
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10" ht="21">
-      <c r="A53" s="5" t="s">
-        <v>49</v>
+      <c r="A53" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="B53" s="3">
-        <v>1332212</v>
+        <v>1883168</v>
       </c>
       <c r="C53" s="3">
-        <v>136035</v>
+        <v>192324</v>
       </c>
       <c r="D53" s="3">
-        <v>1196177</v>
+        <v>1690844</v>
       </c>
       <c r="E53" s="6">
         <v>2019</v>
@@ -2482,17 +2727,17 @@
       <c r="J53" s="2"/>
     </row>
     <row r="54" spans="1:10" ht="21">
-      <c r="A54" s="5" t="s">
-        <v>50</v>
+      <c r="A54" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="B54" s="3">
-        <v>53232</v>
+        <v>75273</v>
       </c>
       <c r="C54" s="3">
-        <v>51088</v>
+        <v>72242</v>
       </c>
       <c r="D54" s="3">
-        <v>2144</v>
+        <v>3031</v>
       </c>
       <c r="E54" s="6">
         <v>2019</v>
@@ -2506,17 +2751,17 @@
       <c r="J54" s="2"/>
     </row>
     <row r="55" spans="1:10" ht="21">
-      <c r="A55" s="5" t="s">
-        <v>51</v>
+      <c r="A55" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="B55" s="3">
-        <v>17894</v>
+        <v>25295</v>
       </c>
       <c r="C55" s="3">
-        <v>17038</v>
-      </c>
-      <c r="D55" s="2">
-        <v>856</v>
+        <v>24086</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1210</v>
       </c>
       <c r="E55" s="6">
         <v>2019</v>
@@ -2530,17 +2775,17 @@
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" ht="21">
-      <c r="A56" s="5" t="s">
-        <v>52</v>
+      <c r="A56" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="B56" s="3">
-        <v>6434</v>
+        <v>9097</v>
       </c>
       <c r="C56" s="3">
-        <v>5871</v>
+        <v>8301</v>
       </c>
       <c r="D56" s="2">
-        <v>563</v>
+        <v>796</v>
       </c>
       <c r="E56" s="6">
         <v>2019</v>
@@ -2554,17 +2799,17 @@
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="5" t="s">
-        <v>228</v>
+      <c r="A57" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="B57" s="3">
-        <v>143671</v>
+        <v>203165</v>
       </c>
       <c r="C57" s="3">
-        <v>99526</v>
+        <v>140735</v>
       </c>
       <c r="D57" s="3">
-        <v>44145</v>
+        <v>62431</v>
       </c>
       <c r="E57" s="6">
         <v>2019</v>
@@ -2578,14 +2823,14 @@
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" ht="21">
-      <c r="A58" s="5" t="s">
-        <v>53</v>
+      <c r="A58" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="B58" s="2">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C58" s="2">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="D58" s="2">
         <v>0</v>
@@ -2602,14 +2847,14 @@
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:10" ht="21">
-      <c r="A59" s="5" t="s">
-        <v>54</v>
+      <c r="A59" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="B59" s="3">
-        <v>2961</v>
+        <v>4185</v>
       </c>
       <c r="C59" s="3">
-        <v>2961</v>
+        <v>4185</v>
       </c>
       <c r="D59" s="2">
         <v>0</v>
@@ -2626,17 +2871,17 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" ht="21">
-      <c r="A60" s="5" t="s">
-        <v>55</v>
+      <c r="A60" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="B60" s="3">
-        <v>6887</v>
+        <v>9754</v>
       </c>
       <c r="C60" s="3">
-        <v>3523</v>
+        <v>4982</v>
       </c>
       <c r="D60" s="3">
-        <v>3364</v>
+        <v>4772</v>
       </c>
       <c r="E60" s="6">
         <v>2019</v>
@@ -2650,17 +2895,17 @@
       <c r="J60" s="2"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="5" t="s">
-        <v>56</v>
+      <c r="A61" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="B61" s="2">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C61" s="2">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E61" s="6">
         <v>2019</v>
@@ -2674,17 +2919,17 @@
       <c r="J61" s="2"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="5" t="s">
-        <v>57</v>
+      <c r="A62" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="B62" s="3">
-        <v>55340</v>
+        <v>78231</v>
       </c>
       <c r="C62" s="3">
-        <v>10193</v>
+        <v>14416</v>
       </c>
       <c r="D62" s="3">
-        <v>45147</v>
+        <v>63815</v>
       </c>
       <c r="E62" s="6">
         <v>2019</v>
@@ -2698,17 +2943,17 @@
       <c r="J62" s="2"/>
     </row>
     <row r="63" spans="1:10" ht="21">
-      <c r="A63" s="5" t="s">
-        <v>58</v>
+      <c r="A63" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="B63" s="3">
-        <v>4386</v>
+        <v>6199</v>
       </c>
       <c r="C63" s="3">
-        <v>4383</v>
+        <v>6194</v>
       </c>
       <c r="D63" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E63" s="6">
         <v>2019</v>
@@ -2722,17 +2967,17 @@
       <c r="J63" s="2"/>
     </row>
     <row r="64" spans="1:10" ht="21">
-      <c r="A64" s="5" t="s">
-        <v>59</v>
+      <c r="A64" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="B64" s="3">
-        <v>367700</v>
+        <v>519803</v>
       </c>
       <c r="C64" s="3">
-        <v>32286</v>
+        <v>45656</v>
       </c>
       <c r="D64" s="3">
-        <v>335414</v>
+        <v>474147</v>
       </c>
       <c r="E64" s="6">
         <v>2019</v>
@@ -2746,17 +2991,17 @@
       <c r="J64" s="2"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="5" t="s">
-        <v>60</v>
+      <c r="A65" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="B65" s="3">
-        <v>129253</v>
+        <v>182720</v>
       </c>
       <c r="C65" s="3">
-        <v>125520</v>
+        <v>177442</v>
       </c>
       <c r="D65" s="3">
-        <v>3734</v>
+        <v>5278</v>
       </c>
       <c r="E65" s="6">
         <v>2019</v>
@@ -2770,17 +3015,17 @@
       <c r="J65" s="2"/>
     </row>
     <row r="66" spans="1:10" ht="21">
-      <c r="A66" s="5" t="s">
-        <v>61</v>
+      <c r="A66" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="B66" s="3">
-        <v>820451</v>
+        <v>1159888</v>
       </c>
       <c r="C66" s="3">
-        <v>798507</v>
+        <v>1128856</v>
       </c>
       <c r="D66" s="3">
-        <v>21944</v>
+        <v>31032</v>
       </c>
       <c r="E66" s="6">
         <v>2019</v>
@@ -2794,17 +3039,17 @@
       <c r="J66" s="2"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="5" t="s">
-        <v>62</v>
+      <c r="A67" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="B67" s="3">
-        <v>106291</v>
+        <v>150244</v>
       </c>
       <c r="C67" s="3">
-        <v>5917</v>
+        <v>8364</v>
       </c>
       <c r="D67" s="3">
-        <v>100374</v>
+        <v>141880</v>
       </c>
       <c r="E67" s="6">
         <v>2019</v>
@@ -2818,17 +3063,17 @@
       <c r="J67" s="2"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="5" t="s">
-        <v>63</v>
+      <c r="A68" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="B68" s="3">
-        <v>126499</v>
+        <v>178840</v>
       </c>
       <c r="C68" s="3">
-        <v>115079</v>
+        <v>162685</v>
       </c>
       <c r="D68" s="3">
-        <v>11419</v>
+        <v>16155</v>
       </c>
       <c r="E68" s="6">
         <v>2019</v>
@@ -2842,17 +3087,17 @@
       <c r="J68" s="2"/>
     </row>
     <row r="69" spans="1:10" ht="21">
-      <c r="A69" s="5" t="s">
-        <v>64</v>
+      <c r="A69" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="B69" s="3">
-        <v>319391</v>
+        <v>451707</v>
       </c>
       <c r="C69" s="3">
-        <v>24566</v>
+        <v>34732</v>
       </c>
       <c r="D69" s="3">
-        <v>294825</v>
+        <v>416974</v>
       </c>
       <c r="E69" s="6">
         <v>2019</v>
@@ -2866,17 +3111,17 @@
       <c r="J69" s="2"/>
     </row>
     <row r="70" spans="1:10" ht="21">
-      <c r="A70" s="5" t="s">
-        <v>65</v>
+      <c r="A70" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="B70" s="3">
-        <v>29257</v>
+        <v>41358</v>
       </c>
       <c r="C70" s="3">
-        <v>27423</v>
+        <v>38767</v>
       </c>
       <c r="D70" s="3">
-        <v>1833</v>
+        <v>2591</v>
       </c>
       <c r="E70" s="6">
         <v>2019</v>
@@ -2890,17 +3135,17 @@
       <c r="J70" s="2"/>
     </row>
     <row r="71" spans="1:10" ht="21">
-      <c r="A71" s="5" t="s">
-        <v>66</v>
+      <c r="A71" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="B71" s="3">
-        <v>498406</v>
+        <v>704637</v>
       </c>
       <c r="C71" s="3">
-        <v>335473</v>
+        <v>474282</v>
       </c>
       <c r="D71" s="3">
-        <v>162932</v>
+        <v>230355</v>
       </c>
       <c r="E71" s="6">
         <v>2019</v>
@@ -2914,17 +3159,17 @@
       <c r="J71" s="2"/>
     </row>
     <row r="72" spans="1:10" ht="21">
-      <c r="A72" s="5" t="s">
-        <v>67</v>
+      <c r="A72" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="B72" s="3">
-        <v>164850</v>
+        <v>233105</v>
       </c>
       <c r="C72" s="3">
-        <v>94196</v>
+        <v>133234</v>
       </c>
       <c r="D72" s="3">
-        <v>70654</v>
+        <v>99871</v>
       </c>
       <c r="E72" s="6">
         <v>2019</v>
@@ -2938,17 +3183,17 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B73" s="2">
-        <v>848</v>
-      </c>
-      <c r="C73" s="2">
-        <v>847</v>
+      <c r="A73" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1199</v>
+      </c>
+      <c r="C73" s="3">
+        <v>1198</v>
       </c>
       <c r="D73" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" s="6">
         <v>2019</v>
@@ -2962,17 +3207,17 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="5" t="s">
-        <v>69</v>
+      <c r="A74" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="B74" s="3">
-        <v>114991</v>
+        <v>162672</v>
       </c>
       <c r="C74" s="3">
-        <v>103443</v>
+        <v>146343</v>
       </c>
       <c r="D74" s="3">
-        <v>11548</v>
+        <v>16329</v>
       </c>
       <c r="E74" s="6">
         <v>2019</v>
@@ -2986,17 +3231,17 @@
       <c r="J74" s="2"/>
     </row>
     <row r="75" spans="1:10" ht="21">
-      <c r="A75" s="5" t="s">
-        <v>70</v>
+      <c r="A75" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="B75" s="3">
-        <v>335154</v>
+        <v>473838</v>
       </c>
       <c r="C75" s="3">
-        <v>327585</v>
+        <v>463129</v>
       </c>
       <c r="D75" s="3">
-        <v>7569</v>
+        <v>10709</v>
       </c>
       <c r="E75" s="6">
         <v>2019</v>
@@ -3010,17 +3255,17 @@
       <c r="J75" s="2"/>
     </row>
     <row r="76" spans="1:10" ht="21">
-      <c r="A76" s="5" t="s">
-        <v>71</v>
+      <c r="A76" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="B76" s="3">
-        <v>268190</v>
+        <v>382927</v>
       </c>
       <c r="C76" s="3">
-        <v>264812</v>
+        <v>378153</v>
       </c>
       <c r="D76" s="3">
-        <v>3378</v>
+        <v>4774</v>
       </c>
       <c r="E76" s="6">
         <v>2019</v>
@@ -3034,17 +3279,17 @@
       <c r="J76" s="2"/>
     </row>
     <row r="77" spans="1:10" ht="21">
-      <c r="A77" s="5" t="s">
-        <v>72</v>
+      <c r="A77" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="B77" s="3">
-        <v>478946</v>
+        <v>677023</v>
       </c>
       <c r="C77" s="3">
-        <v>142125</v>
+        <v>200914</v>
       </c>
       <c r="D77" s="3">
-        <v>336821</v>
+        <v>476109</v>
       </c>
       <c r="E77" s="6">
         <v>2019</v>
@@ -3058,17 +3303,17 @@
       <c r="J77" s="2"/>
     </row>
     <row r="78" spans="1:10" ht="21">
-      <c r="A78" s="5" t="s">
-        <v>73</v>
+      <c r="A78" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="B78" s="3">
-        <v>67055</v>
+        <v>94806</v>
       </c>
       <c r="C78" s="3">
-        <v>54653</v>
+        <v>77263</v>
       </c>
       <c r="D78" s="3">
-        <v>12402</v>
+        <v>17543</v>
       </c>
       <c r="E78" s="6">
         <v>2019</v>
@@ -3082,17 +3327,17 @@
       <c r="J78" s="2"/>
     </row>
     <row r="79" spans="1:10" ht="21">
-      <c r="A79" s="5" t="s">
-        <v>74</v>
+      <c r="A79" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="B79" s="3">
-        <v>17344</v>
+        <v>24517</v>
       </c>
       <c r="C79" s="3">
-        <v>17073</v>
+        <v>24134</v>
       </c>
       <c r="D79" s="2">
-        <v>271</v>
+        <v>383</v>
       </c>
       <c r="E79" s="6">
         <v>2019</v>
@@ -3106,17 +3351,17 @@
       <c r="J79" s="2"/>
     </row>
     <row r="80" spans="1:10" ht="21">
-      <c r="A80" s="5" t="s">
-        <v>229</v>
+      <c r="A80" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="B80" s="3">
-        <v>22479</v>
+        <v>31792</v>
       </c>
       <c r="C80" s="3">
-        <v>21401</v>
+        <v>30252</v>
       </c>
       <c r="D80" s="3">
-        <v>1078</v>
+        <v>1540</v>
       </c>
       <c r="E80" s="6">
         <v>2019</v>
@@ -3130,17 +3375,17 @@
       <c r="J80" s="2"/>
     </row>
     <row r="81" spans="1:10" ht="21">
-      <c r="A81" s="5" t="s">
-        <v>75</v>
+      <c r="A81" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="B81" s="3">
-        <v>88965</v>
+        <v>125786</v>
       </c>
       <c r="C81" s="3">
-        <v>49770</v>
+        <v>70379</v>
       </c>
       <c r="D81" s="3">
-        <v>39195</v>
+        <v>55407</v>
       </c>
       <c r="E81" s="6">
         <v>2019</v>
@@ -3154,17 +3399,17 @@
       <c r="J81" s="2"/>
     </row>
     <row r="82" spans="1:10" ht="21">
-      <c r="A82" s="5" t="s">
-        <v>76</v>
+      <c r="A82" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="B82" s="3">
-        <v>61503</v>
+        <v>86963</v>
       </c>
       <c r="C82" s="3">
-        <v>59845</v>
+        <v>84612</v>
       </c>
       <c r="D82" s="3">
-        <v>1657</v>
+        <v>2350</v>
       </c>
       <c r="E82" s="6">
         <v>2019</v>
@@ -3178,17 +3423,17 @@
       <c r="J82" s="2"/>
     </row>
     <row r="83" spans="1:10" ht="21">
-      <c r="A83" s="5" t="s">
-        <v>77</v>
+      <c r="A83" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="B83" s="3">
-        <v>286147</v>
+        <v>404751</v>
       </c>
       <c r="C83" s="3">
-        <v>241904</v>
+        <v>342131</v>
       </c>
       <c r="D83" s="3">
-        <v>44243</v>
+        <v>62620</v>
       </c>
       <c r="E83" s="6">
         <v>2019</v>
@@ -3202,17 +3447,17 @@
       <c r="J83" s="2"/>
     </row>
     <row r="84" spans="1:10" ht="21">
-      <c r="A84" s="5" t="s">
-        <v>78</v>
+      <c r="A84" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="B84" s="3">
-        <v>161096</v>
+        <v>228106</v>
       </c>
       <c r="C84" s="3">
-        <v>111432</v>
+        <v>157540</v>
       </c>
       <c r="D84" s="3">
-        <v>49664</v>
+        <v>70567</v>
       </c>
       <c r="E84" s="6">
         <v>2019</v>
@@ -3226,17 +3471,17 @@
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" ht="21">
-      <c r="A85" s="5" t="s">
-        <v>79</v>
+      <c r="A85" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="B85" s="3">
-        <v>85712</v>
+        <v>122342</v>
       </c>
       <c r="C85" s="3">
-        <v>11142</v>
+        <v>15753</v>
       </c>
       <c r="D85" s="3">
-        <v>74570</v>
+        <v>106589</v>
       </c>
       <c r="E85" s="6">
         <v>2019</v>
@@ -3250,17 +3495,17 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" ht="21">
-      <c r="A86" s="5" t="s">
-        <v>80</v>
+      <c r="A86" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="B86" s="3">
-        <v>18194</v>
+        <v>25741</v>
       </c>
       <c r="C86" s="3">
-        <v>16151</v>
+        <v>22850</v>
       </c>
       <c r="D86" s="3">
-        <v>2043</v>
+        <v>2890</v>
       </c>
       <c r="E86" s="6">
         <v>2019</v>
@@ -3274,17 +3519,17 @@
       <c r="J86" s="2"/>
     </row>
     <row r="87" spans="1:10" ht="21">
-      <c r="A87" s="5" t="s">
-        <v>81</v>
+      <c r="A87" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="B87" s="3">
-        <v>1160129</v>
+        <v>1640084</v>
       </c>
       <c r="C87" s="3">
-        <v>1013237</v>
+        <v>1432446</v>
       </c>
       <c r="D87" s="3">
-        <v>146893</v>
+        <v>207638</v>
       </c>
       <c r="E87" s="6">
         <v>2019</v>
@@ -3298,14 +3543,14 @@
       <c r="J87" s="2"/>
     </row>
     <row r="88" spans="1:10" ht="21">
-      <c r="A88" s="5" t="s">
-        <v>82</v>
+      <c r="A88" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="B88" s="3">
-        <v>12168</v>
+        <v>17203</v>
       </c>
       <c r="C88" s="3">
-        <v>12168</v>
+        <v>17203</v>
       </c>
       <c r="D88" s="2">
         <v>0</v>
@@ -3322,17 +3567,17 @@
       <c r="J88" s="2"/>
     </row>
     <row r="89" spans="1:10" ht="21">
-      <c r="A89" s="5" t="s">
-        <v>83</v>
+      <c r="A89" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="B89" s="3">
-        <v>22698</v>
+        <v>32087</v>
       </c>
       <c r="C89" s="3">
-        <v>19592</v>
+        <v>27697</v>
       </c>
       <c r="D89" s="3">
-        <v>3105</v>
+        <v>4389</v>
       </c>
       <c r="E89" s="6">
         <v>2019</v>
@@ -3346,17 +3591,17 @@
       <c r="J89" s="2"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="5" t="s">
-        <v>84</v>
+      <c r="A90" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="B90" s="2">
-        <v>555</v>
+        <v>785</v>
       </c>
       <c r="C90" s="2">
-        <v>552</v>
+        <v>782</v>
       </c>
       <c r="D90" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E90" s="6">
         <v>2019</v>
@@ -3370,17 +3615,17 @@
       <c r="J90" s="2"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="5" t="s">
-        <v>85</v>
+      <c r="A91" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="B91" s="3">
-        <v>126917</v>
+        <v>179500</v>
       </c>
       <c r="C91" s="3">
-        <v>113854</v>
+        <v>161005</v>
       </c>
       <c r="D91" s="3">
-        <v>13063</v>
+        <v>18495</v>
       </c>
       <c r="E91" s="6">
         <v>2019</v>
@@ -3394,17 +3639,17 @@
       <c r="J91" s="2"/>
     </row>
     <row r="92" spans="1:10" ht="21">
-      <c r="A92" s="5" t="s">
-        <v>86</v>
+      <c r="A92" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="B92" s="3">
-        <v>5266</v>
+        <v>7446</v>
       </c>
       <c r="C92" s="3">
-        <v>5265</v>
+        <v>7444</v>
       </c>
       <c r="D92" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E92" s="6">
         <v>2019</v>
@@ -3418,17 +3663,17 @@
       <c r="J92" s="2"/>
     </row>
     <row r="93" spans="1:10" ht="21">
-      <c r="A93" s="5" t="s">
-        <v>87</v>
+      <c r="A93" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="B93" s="3">
-        <v>30143</v>
+        <v>42617</v>
       </c>
       <c r="C93" s="3">
-        <v>24577</v>
+        <v>34748</v>
       </c>
       <c r="D93" s="3">
-        <v>5566</v>
+        <v>7870</v>
       </c>
       <c r="E93" s="6">
         <v>2019</v>
@@ -3442,17 +3687,17 @@
       <c r="J93" s="2"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="5" t="s">
-        <v>88</v>
+      <c r="A94" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="B94" s="3">
-        <v>41920</v>
+        <v>59262</v>
       </c>
       <c r="C94" s="3">
-        <v>41230</v>
+        <v>58286</v>
       </c>
       <c r="D94" s="2">
-        <v>690</v>
+        <v>976</v>
       </c>
       <c r="E94" s="6">
         <v>2019</v>
@@ -3466,17 +3711,17 @@
       <c r="J94" s="2"/>
     </row>
     <row r="95" spans="1:10" ht="21">
-      <c r="A95" s="5" t="s">
-        <v>230</v>
+      <c r="A95" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="B95" s="3">
-        <v>2243731</v>
+        <v>3172611</v>
       </c>
       <c r="C95" s="3">
-        <v>962184</v>
+        <v>1360497</v>
       </c>
       <c r="D95" s="3">
-        <v>1281547</v>
+        <v>1812114</v>
       </c>
       <c r="E95" s="6">
         <v>2019</v>
@@ -3490,8 +3735,8 @@
       <c r="J95" s="2"/>
     </row>
     <row r="96" spans="1:10" ht="21">
-      <c r="A96" s="5" t="s">
-        <v>89</v>
+      <c r="A96" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="B96" s="2">
         <v>0</v>
@@ -3500,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E96" s="6">
         <v>2019</v>
@@ -3514,17 +3759,17 @@
       <c r="J96" s="2"/>
     </row>
     <row r="97" spans="1:10" ht="21">
-      <c r="A97" s="5" t="s">
-        <v>90</v>
+      <c r="A97" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="B97" s="3">
-        <v>243541</v>
+        <v>344386</v>
       </c>
       <c r="C97" s="3">
-        <v>191939</v>
+        <v>271404</v>
       </c>
       <c r="D97" s="3">
-        <v>51602</v>
+        <v>72982</v>
       </c>
       <c r="E97" s="6">
         <v>2019</v>
@@ -3538,17 +3783,17 @@
       <c r="J97" s="2"/>
     </row>
     <row r="98" spans="1:10" ht="21">
-      <c r="A98" s="5" t="s">
-        <v>91</v>
+      <c r="A98" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="B98" s="3">
-        <v>262021</v>
+        <v>370430</v>
       </c>
       <c r="C98" s="3">
-        <v>235438</v>
+        <v>332834</v>
       </c>
       <c r="D98" s="3">
-        <v>26583</v>
+        <v>37597</v>
       </c>
       <c r="E98" s="6">
         <v>2019</v>
@@ -3562,17 +3807,17 @@
       <c r="J98" s="2"/>
     </row>
     <row r="99" spans="1:10" ht="21">
-      <c r="A99" s="5" t="s">
-        <v>92</v>
+      <c r="A99" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="B99" s="3">
-        <v>137620</v>
+        <v>194563</v>
       </c>
       <c r="C99" s="3">
-        <v>136469</v>
+        <v>192932</v>
       </c>
       <c r="D99" s="3">
-        <v>1151</v>
+        <v>1630</v>
       </c>
       <c r="E99" s="6">
         <v>2019</v>
@@ -3586,17 +3831,17 @@
       <c r="J99" s="2"/>
     </row>
     <row r="100" spans="1:10" ht="21">
-      <c r="A100" s="5" t="s">
-        <v>93</v>
+      <c r="A100" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="B100" s="3">
-        <v>103190</v>
+        <v>146002</v>
       </c>
       <c r="C100" s="3">
-        <v>89782</v>
+        <v>126961</v>
       </c>
       <c r="D100" s="3">
-        <v>13408</v>
+        <v>19041</v>
       </c>
       <c r="E100" s="6">
         <v>2019</v>
@@ -3610,17 +3855,17 @@
       <c r="J100" s="2"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="5" t="s">
-        <v>94</v>
+      <c r="A101" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="B101" s="3">
-        <v>48031</v>
+        <v>67962</v>
       </c>
       <c r="C101" s="3">
-        <v>45526</v>
+        <v>64401</v>
       </c>
       <c r="D101" s="3">
-        <v>2505</v>
+        <v>3561</v>
       </c>
       <c r="E101" s="6">
         <v>2019</v>
@@ -3634,17 +3879,17 @@
       <c r="J101" s="2"/>
     </row>
     <row r="102" spans="1:10" ht="21">
-      <c r="A102" s="5" t="s">
-        <v>95</v>
+      <c r="A102" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="B102" s="3">
-        <v>18614</v>
+        <v>26317</v>
       </c>
       <c r="C102" s="3">
-        <v>18468</v>
+        <v>26110</v>
       </c>
       <c r="D102" s="2">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="E102" s="6">
         <v>2019</v>
@@ -3658,17 +3903,17 @@
       <c r="J102" s="2"/>
     </row>
     <row r="103" spans="1:10" ht="21">
-      <c r="A103" s="5" t="s">
-        <v>96</v>
+      <c r="A103" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="B103" s="3">
-        <v>385235</v>
+        <v>544778</v>
       </c>
       <c r="C103" s="3">
-        <v>114593</v>
+        <v>162008</v>
       </c>
       <c r="D103" s="3">
-        <v>270642</v>
+        <v>382770</v>
       </c>
       <c r="E103" s="6">
         <v>2019</v>
@@ -3682,17 +3927,17 @@
       <c r="J103" s="2"/>
     </row>
     <row r="104" spans="1:10" ht="21">
-      <c r="A104" s="5" t="s">
-        <v>231</v>
+      <c r="A104" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="B104" s="3">
-        <v>216008</v>
+        <v>305355</v>
       </c>
       <c r="C104" s="3">
-        <v>47157</v>
+        <v>66667</v>
       </c>
       <c r="D104" s="3">
-        <v>168851</v>
+        <v>238688</v>
       </c>
       <c r="E104" s="6">
         <v>2019</v>
@@ -3706,17 +3951,17 @@
       <c r="J104" s="2"/>
     </row>
     <row r="105" spans="1:10" ht="21">
-      <c r="A105" s="5" t="s">
-        <v>97</v>
+      <c r="A105" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="B105" s="3">
-        <v>49784</v>
+        <v>70386</v>
       </c>
       <c r="C105" s="3">
-        <v>27512</v>
+        <v>38900</v>
       </c>
       <c r="D105" s="3">
-        <v>22271</v>
+        <v>31486</v>
       </c>
       <c r="E105" s="6">
         <v>2019</v>
@@ -3730,17 +3975,17 @@
       <c r="J105" s="2"/>
     </row>
     <row r="106" spans="1:10" ht="21">
-      <c r="A106" s="5" t="s">
-        <v>232</v>
+      <c r="A106" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="B106" s="3">
-        <v>4005</v>
+        <v>5662</v>
       </c>
       <c r="C106" s="3">
-        <v>3529</v>
+        <v>4988</v>
       </c>
       <c r="D106" s="2">
-        <v>476</v>
+        <v>674</v>
       </c>
       <c r="E106" s="6">
         <v>2019</v>
@@ -3754,14 +3999,14 @@
       <c r="J106" s="2"/>
     </row>
     <row r="107" spans="1:10" ht="21">
-      <c r="A107" s="5" t="s">
-        <v>98</v>
+      <c r="A107" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="B107" s="2">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C107" s="2">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D107" s="2">
         <v>0</v>
@@ -3778,17 +4023,17 @@
       <c r="J107" s="2"/>
     </row>
     <row r="108" spans="1:10" ht="21">
-      <c r="A108" s="5" t="s">
-        <v>99</v>
+      <c r="A108" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="B108" s="3">
-        <v>1652</v>
+        <v>2340</v>
       </c>
       <c r="C108" s="3">
-        <v>1637</v>
+        <v>2319</v>
       </c>
       <c r="D108" s="2">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E108" s="6">
         <v>2019</v>
@@ -3802,17 +4047,17 @@
       <c r="J108" s="2"/>
     </row>
     <row r="109" spans="1:10" ht="21">
-      <c r="A109" s="5" t="s">
-        <v>100</v>
+      <c r="A109" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B109" s="3">
-        <v>26658</v>
+        <v>37681</v>
       </c>
       <c r="C109" s="3">
-        <v>3197</v>
+        <v>4519</v>
       </c>
       <c r="D109" s="3">
-        <v>23461</v>
+        <v>33162</v>
       </c>
       <c r="E109" s="6">
         <v>2019</v>
@@ -3826,14 +4071,14 @@
       <c r="J109" s="2"/>
     </row>
     <row r="110" spans="1:10" ht="21">
-      <c r="A110" s="5" t="s">
-        <v>101</v>
+      <c r="A110" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="B110" s="3">
-        <v>2253</v>
+        <v>3184</v>
       </c>
       <c r="C110" s="3">
-        <v>2253</v>
+        <v>3184</v>
       </c>
       <c r="D110" s="2">
         <v>0</v>
@@ -3850,17 +4095,17 @@
       <c r="J110" s="2"/>
     </row>
     <row r="111" spans="1:10" ht="21">
-      <c r="A111" s="5" t="s">
-        <v>102</v>
+      <c r="A111" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="B111" s="3">
-        <v>50709</v>
+        <v>71679</v>
       </c>
       <c r="C111" s="3">
-        <v>6310</v>
+        <v>8920</v>
       </c>
       <c r="D111" s="3">
-        <v>44399</v>
+        <v>62759</v>
       </c>
       <c r="E111" s="6">
         <v>2019</v>
@@ -3874,14 +4119,14 @@
       <c r="J111" s="2"/>
     </row>
     <row r="112" spans="1:10" ht="21">
-      <c r="A112" s="5" t="s">
-        <v>103</v>
+      <c r="A112" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="B112" s="2">
-        <v>235</v>
+        <v>333</v>
       </c>
       <c r="C112" s="2">
-        <v>234</v>
+        <v>331</v>
       </c>
       <c r="D112" s="2">
         <v>1</v>
@@ -3898,17 +4143,17 @@
       <c r="J112" s="2"/>
     </row>
     <row r="113" spans="1:10" ht="21">
-      <c r="A113" s="5" t="s">
-        <v>104</v>
+      <c r="A113" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="B113" s="3">
-        <v>1571071</v>
+        <v>2223633</v>
       </c>
       <c r="C113" s="3">
-        <v>1036681</v>
+        <v>1466447</v>
       </c>
       <c r="D113" s="3">
-        <v>534390</v>
+        <v>757186</v>
       </c>
       <c r="E113" s="6">
         <v>2019</v>
@@ -3922,17 +4167,17 @@
       <c r="J113" s="2"/>
     </row>
     <row r="114" spans="1:10" ht="21">
-      <c r="A114" s="5" t="s">
-        <v>105</v>
+      <c r="A114" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="B114" s="3">
-        <v>714799</v>
+        <v>1012487</v>
       </c>
       <c r="C114" s="3">
-        <v>330503</v>
+        <v>467724</v>
       </c>
       <c r="D114" s="3">
-        <v>384296</v>
+        <v>544763</v>
       </c>
       <c r="E114" s="6">
         <v>2019</v>
@@ -3946,17 +4191,17 @@
       <c r="J114" s="2"/>
     </row>
     <row r="115" spans="1:10" ht="21">
-      <c r="A115" s="5" t="s">
-        <v>106</v>
+      <c r="A115" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="B115" s="3">
-        <v>5017822</v>
+        <v>7099597</v>
       </c>
       <c r="C115" s="3">
-        <v>3377646</v>
+        <v>4776753</v>
       </c>
       <c r="D115" s="3">
-        <v>1640176</v>
+        <v>2322844</v>
       </c>
       <c r="E115" s="6">
         <v>2019</v>
@@ -3970,17 +4215,17 @@
       <c r="J115" s="2"/>
     </row>
     <row r="116" spans="1:10" ht="21">
-      <c r="A116" s="5" t="s">
-        <v>107</v>
+      <c r="A116" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="B116" s="3">
-        <v>10974158</v>
+        <v>15548430</v>
       </c>
       <c r="C116" s="3">
-        <v>4388118</v>
+        <v>6208446</v>
       </c>
       <c r="D116" s="3">
-        <v>6586040</v>
+        <v>9339984</v>
       </c>
       <c r="E116" s="6">
         <v>2019</v>
@@ -3994,17 +4239,17 @@
       <c r="J116" s="2"/>
     </row>
     <row r="117" spans="1:10" ht="21">
-      <c r="A117" s="5" t="s">
-        <v>108</v>
+      <c r="A117" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="B117" s="3">
-        <v>4172923</v>
+        <v>5910430</v>
       </c>
       <c r="C117" s="3">
-        <v>1933837</v>
+        <v>2736513</v>
       </c>
       <c r="D117" s="3">
-        <v>2239086</v>
+        <v>3173917</v>
       </c>
       <c r="E117" s="6">
         <v>2019</v>
@@ -4018,17 +4263,17 @@
       <c r="J117" s="2"/>
     </row>
     <row r="118" spans="1:10" ht="21">
-      <c r="A118" s="5" t="s">
-        <v>109</v>
+      <c r="A118" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="B118" s="3">
-        <v>858392</v>
+        <v>1214352</v>
       </c>
       <c r="C118" s="3">
-        <v>175200</v>
+        <v>247736</v>
       </c>
       <c r="D118" s="3">
-        <v>683191</v>
+        <v>966616</v>
       </c>
       <c r="E118" s="6">
         <v>2019</v>
@@ -4042,17 +4287,17 @@
       <c r="J118" s="2"/>
     </row>
     <row r="119" spans="1:10" ht="21">
-      <c r="A119" s="5" t="s">
-        <v>110</v>
+      <c r="A119" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="B119" s="3">
-        <v>3111018</v>
+        <v>4409110</v>
       </c>
       <c r="C119" s="3">
-        <v>1848381</v>
+        <v>2615265</v>
       </c>
       <c r="D119" s="3">
-        <v>1262637</v>
+        <v>1793845</v>
       </c>
       <c r="E119" s="6">
         <v>2019</v>
@@ -4066,17 +4311,17 @@
       <c r="J119" s="2"/>
     </row>
     <row r="120" spans="1:10" ht="21">
-      <c r="A120" s="5" t="s">
-        <v>111</v>
+      <c r="A120" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="B120" s="3">
-        <v>69835</v>
+        <v>98812</v>
       </c>
       <c r="C120" s="3">
-        <v>54654</v>
+        <v>77306</v>
       </c>
       <c r="D120" s="3">
-        <v>15181</v>
+        <v>21506</v>
       </c>
       <c r="E120" s="6">
         <v>2019</v>
@@ -4090,17 +4335,17 @@
       <c r="J120" s="2"/>
     </row>
     <row r="121" spans="1:10" ht="21">
-      <c r="A121" s="5" t="s">
-        <v>112</v>
+      <c r="A121" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="B121" s="3">
-        <v>5414803</v>
+        <v>7661158</v>
       </c>
       <c r="C121" s="3">
-        <v>4660097</v>
+        <v>6590344</v>
       </c>
       <c r="D121" s="3">
-        <v>754706</v>
+        <v>1070814</v>
       </c>
       <c r="E121" s="6">
         <v>2019</v>
@@ -4114,17 +4359,17 @@
       <c r="J121" s="2"/>
     </row>
     <row r="122" spans="1:10" ht="21">
-      <c r="A122" s="5" t="s">
-        <v>113</v>
+      <c r="A122" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="B122" s="3">
-        <v>495374</v>
+        <v>701615</v>
       </c>
       <c r="C122" s="3">
-        <v>457356</v>
+        <v>647584</v>
       </c>
       <c r="D122" s="3">
-        <v>38018</v>
+        <v>54031</v>
       </c>
       <c r="E122" s="6">
         <v>2019</v>
@@ -4138,17 +4383,17 @@
       <c r="J122" s="2"/>
     </row>
     <row r="123" spans="1:10" ht="21">
-      <c r="A123" s="5" t="s">
-        <v>114</v>
+      <c r="A123" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="B123" s="3">
-        <v>385190</v>
+        <v>545628</v>
       </c>
       <c r="C123" s="3">
-        <v>241558</v>
+        <v>341973</v>
       </c>
       <c r="D123" s="3">
-        <v>143632</v>
+        <v>203655</v>
       </c>
       <c r="E123" s="6">
         <v>2019</v>
@@ -4162,17 +4407,17 @@
       <c r="J123" s="2"/>
     </row>
     <row r="124" spans="1:10" ht="21">
-      <c r="A124" s="5" t="s">
-        <v>115</v>
+      <c r="A124" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="B124" s="3">
-        <v>1991424</v>
+        <v>2818871</v>
       </c>
       <c r="C124" s="3">
-        <v>1426341</v>
+        <v>2017830</v>
       </c>
       <c r="D124" s="3">
-        <v>565083</v>
+        <v>801041</v>
       </c>
       <c r="E124" s="6">
         <v>2019</v>
@@ -4186,17 +4431,17 @@
       <c r="J124" s="2"/>
     </row>
     <row r="125" spans="1:10" ht="21">
-      <c r="A125" s="5" t="s">
-        <v>116</v>
+      <c r="A125" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="B125" s="3">
-        <v>40768</v>
+        <v>57654</v>
       </c>
       <c r="C125" s="3">
-        <v>33792</v>
+        <v>47781</v>
       </c>
       <c r="D125" s="3">
-        <v>6976</v>
+        <v>9873</v>
       </c>
       <c r="E125" s="6">
         <v>2019</v>
@@ -4210,17 +4455,17 @@
       <c r="J125" s="2"/>
     </row>
     <row r="126" spans="1:10" ht="21">
-      <c r="A126" s="5" t="s">
-        <v>233</v>
+      <c r="A126" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="B126" s="2">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C126" s="2">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D126" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E126" s="6">
         <v>2019</v>
@@ -4234,17 +4479,17 @@
       <c r="J126" s="2"/>
     </row>
     <row r="127" spans="1:10" ht="21">
-      <c r="A127" s="5" t="s">
-        <v>117</v>
+      <c r="A127" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="B127" s="3">
-        <v>682138</v>
+        <v>967735</v>
       </c>
       <c r="C127" s="3">
-        <v>181665</v>
+        <v>257325</v>
       </c>
       <c r="D127" s="3">
-        <v>500473</v>
+        <v>710410</v>
       </c>
       <c r="E127" s="6">
         <v>2019</v>
@@ -4258,17 +4503,17 @@
       <c r="J127" s="2"/>
     </row>
     <row r="128" spans="1:10" ht="21">
-      <c r="A128" s="5" t="s">
-        <v>118</v>
+      <c r="A128" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="B128" s="3">
-        <v>143915</v>
+        <v>203671</v>
       </c>
       <c r="C128" s="3">
-        <v>95921</v>
+        <v>135680</v>
       </c>
       <c r="D128" s="3">
-        <v>47993</v>
+        <v>67991</v>
       </c>
       <c r="E128" s="6">
         <v>2019</v>
@@ -4282,17 +4527,17 @@
       <c r="J128" s="2"/>
     </row>
     <row r="129" spans="1:10" ht="21">
-      <c r="A129" s="5" t="s">
-        <v>119</v>
+      <c r="A129" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="B129" s="3">
-        <v>390422</v>
+        <v>553112</v>
       </c>
       <c r="C129" s="3">
-        <v>148450</v>
+        <v>210055</v>
       </c>
       <c r="D129" s="3">
-        <v>241972</v>
+        <v>343056</v>
       </c>
       <c r="E129" s="6">
         <v>2019</v>
@@ -4306,14 +4551,14 @@
       <c r="J129" s="2"/>
     </row>
     <row r="130" spans="1:10" ht="21">
-      <c r="A130" s="5" t="s">
-        <v>120</v>
+      <c r="A130" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="B130" s="2">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="C130" s="2">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D130" s="2">
         <v>0</v>
@@ -4330,17 +4575,17 @@
       <c r="J130" s="2"/>
     </row>
     <row r="131" spans="1:10" ht="21">
-      <c r="A131" s="5" t="s">
-        <v>121</v>
+      <c r="A131" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="B131" s="3">
-        <v>611171</v>
+        <v>865540</v>
       </c>
       <c r="C131" s="3">
-        <v>364311</v>
+        <v>515275</v>
       </c>
       <c r="D131" s="3">
-        <v>246860</v>
+        <v>350265</v>
       </c>
       <c r="E131" s="6">
         <v>2019</v>
@@ -4354,17 +4599,17 @@
       <c r="J131" s="2"/>
     </row>
     <row r="132" spans="1:10" ht="21">
-      <c r="A132" s="5" t="s">
-        <v>122</v>
+      <c r="A132" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="B132" s="3">
-        <v>20366</v>
+        <v>28800</v>
       </c>
       <c r="C132" s="3">
-        <v>4956</v>
+        <v>7008</v>
       </c>
       <c r="D132" s="3">
-        <v>15409</v>
+        <v>21792</v>
       </c>
       <c r="E132" s="6">
         <v>2019</v>
@@ -4378,17 +4623,17 @@
       <c r="J132" s="2"/>
     </row>
     <row r="133" spans="1:10" ht="21">
-      <c r="A133" s="5" t="s">
-        <v>123</v>
+      <c r="A133" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="B133" s="3">
-        <v>11640</v>
+        <v>16491</v>
       </c>
       <c r="C133" s="3">
-        <v>3391</v>
+        <v>4798</v>
       </c>
       <c r="D133" s="3">
-        <v>8249</v>
+        <v>11693</v>
       </c>
       <c r="E133" s="6">
         <v>2019</v>
@@ -4402,17 +4647,17 @@
       <c r="J133" s="2"/>
     </row>
     <row r="134" spans="1:10" ht="21">
-      <c r="A134" s="5" t="s">
-        <v>124</v>
+      <c r="A134" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="B134" s="3">
-        <v>107269</v>
+        <v>152564</v>
       </c>
       <c r="C134" s="3">
-        <v>84324</v>
+        <v>120111</v>
       </c>
       <c r="D134" s="3">
-        <v>22945</v>
+        <v>32453</v>
       </c>
       <c r="E134" s="6">
         <v>2019</v>
@@ -4426,17 +4671,17 @@
       <c r="J134" s="2"/>
     </row>
     <row r="135" spans="1:10" ht="21">
-      <c r="A135" s="5" t="s">
-        <v>125</v>
+      <c r="A135" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="B135" s="3">
-        <v>2181</v>
+        <v>3090</v>
       </c>
       <c r="C135" s="3">
-        <v>1606</v>
+        <v>2271</v>
       </c>
       <c r="D135" s="2">
-        <v>575</v>
+        <v>819</v>
       </c>
       <c r="E135" s="6">
         <v>2019</v>
@@ -4450,17 +4695,17 @@
       <c r="J135" s="2"/>
     </row>
     <row r="136" spans="1:10" ht="21">
-      <c r="A136" s="5" t="s">
-        <v>126</v>
+      <c r="A136" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="B136" s="3">
-        <v>567708</v>
+        <v>802821</v>
       </c>
       <c r="C136" s="3">
-        <v>183875</v>
+        <v>260073</v>
       </c>
       <c r="D136" s="3">
-        <v>383833</v>
+        <v>542747</v>
       </c>
       <c r="E136" s="6">
         <v>2019</v>
@@ -4474,17 +4719,17 @@
       <c r="J136" s="2"/>
     </row>
     <row r="137" spans="1:10" ht="21">
-      <c r="A137" s="5" t="s">
-        <v>127</v>
+      <c r="A137" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="B137" s="3">
-        <v>1618715</v>
+        <v>2290585</v>
       </c>
       <c r="C137" s="3">
-        <v>1379801</v>
+        <v>1951756</v>
       </c>
       <c r="D137" s="3">
-        <v>238915</v>
+        <v>338829</v>
       </c>
       <c r="E137" s="6">
         <v>2019</v>
@@ -4498,17 +4743,17 @@
       <c r="J137" s="2"/>
     </row>
     <row r="138" spans="1:10" ht="21">
-      <c r="A138" s="5" t="s">
-        <v>128</v>
+      <c r="A138" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="B138" s="3">
-        <v>399203</v>
+        <v>565154</v>
       </c>
       <c r="C138" s="3">
-        <v>241628</v>
+        <v>341707</v>
       </c>
       <c r="D138" s="3">
-        <v>157576</v>
+        <v>223448</v>
       </c>
       <c r="E138" s="6">
         <v>2019</v>
@@ -4522,17 +4767,17 @@
       <c r="J138" s="2"/>
     </row>
     <row r="139" spans="1:10" ht="21">
-      <c r="A139" s="5" t="s">
-        <v>129</v>
+      <c r="A139" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="B139" s="2">
-        <v>376</v>
+        <v>536</v>
       </c>
       <c r="C139" s="2">
-        <v>169</v>
+        <v>239</v>
       </c>
       <c r="D139" s="2">
-        <v>207</v>
+        <v>296</v>
       </c>
       <c r="E139" s="6">
         <v>2019</v>
@@ -4546,17 +4791,17 @@
       <c r="J139" s="2"/>
     </row>
     <row r="140" spans="1:10" ht="21">
-      <c r="A140" s="5" t="s">
-        <v>130</v>
+      <c r="A140" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="B140" s="3">
-        <v>1030311</v>
+        <v>1459387</v>
       </c>
       <c r="C140" s="3">
-        <v>447691</v>
+        <v>633676</v>
       </c>
       <c r="D140" s="3">
-        <v>582620</v>
+        <v>825711</v>
       </c>
       <c r="E140" s="6">
         <v>2019</v>
@@ -4570,17 +4815,17 @@
       <c r="J140" s="2"/>
     </row>
     <row r="141" spans="1:10" ht="21">
-      <c r="A141" s="5" t="s">
-        <v>131</v>
+      <c r="A141" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="B141" s="3">
-        <v>1895216</v>
+        <v>2684378</v>
       </c>
       <c r="C141" s="3">
-        <v>303669</v>
+        <v>429969</v>
       </c>
       <c r="D141" s="3">
-        <v>1591546</v>
+        <v>2254409</v>
       </c>
       <c r="E141" s="6">
         <v>2019</v>
@@ -4594,17 +4839,17 @@
       <c r="J141" s="2"/>
     </row>
     <row r="142" spans="1:10" ht="21">
-      <c r="A142" s="5" t="s">
-        <v>132</v>
+      <c r="A142" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="B142" s="3">
-        <v>63077</v>
+        <v>89270</v>
       </c>
       <c r="C142" s="3">
-        <v>48070</v>
+        <v>67966</v>
       </c>
       <c r="D142" s="3">
-        <v>15008</v>
+        <v>21305</v>
       </c>
       <c r="E142" s="6">
         <v>2019</v>
@@ -4618,17 +4863,17 @@
       <c r="J142" s="2"/>
     </row>
     <row r="143" spans="1:10" ht="21">
-      <c r="A143" s="5" t="s">
-        <v>133</v>
+      <c r="A143" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="B143" s="3">
-        <v>62279</v>
+        <v>88138</v>
       </c>
       <c r="C143" s="3">
-        <v>54402</v>
+        <v>76939</v>
       </c>
       <c r="D143" s="3">
-        <v>7877</v>
+        <v>11199</v>
       </c>
       <c r="E143" s="6">
         <v>2019</v>
@@ -4642,17 +4887,17 @@
       <c r="J143" s="2"/>
     </row>
     <row r="144" spans="1:10" ht="21">
-      <c r="A144" s="5" t="s">
-        <v>234</v>
+      <c r="A144" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="B144" s="3">
-        <v>144998</v>
+        <v>205176</v>
       </c>
       <c r="C144" s="3">
-        <v>93599</v>
+        <v>132364</v>
       </c>
       <c r="D144" s="3">
-        <v>51399</v>
+        <v>72812</v>
       </c>
       <c r="E144" s="6">
         <v>2019</v>
@@ -4666,17 +4911,17 @@
       <c r="J144" s="2"/>
     </row>
     <row r="145" spans="1:10" ht="21">
-      <c r="A145" s="5" t="s">
-        <v>134</v>
+      <c r="A145" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="B145" s="3">
-        <v>76737</v>
+        <v>108487</v>
       </c>
       <c r="C145" s="3">
-        <v>73883</v>
+        <v>104451</v>
       </c>
       <c r="D145" s="3">
-        <v>2855</v>
+        <v>4037</v>
       </c>
       <c r="E145" s="6">
         <v>2019</v>
@@ -4690,17 +4935,17 @@
       <c r="J145" s="2"/>
     </row>
     <row r="146" spans="1:10" ht="21">
-      <c r="A146" s="5" t="s">
-        <v>135</v>
+      <c r="A146" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="B146" s="3">
-        <v>80179</v>
+        <v>113983</v>
       </c>
       <c r="C146" s="3">
-        <v>13968</v>
+        <v>19764</v>
       </c>
       <c r="D146" s="3">
-        <v>66211</v>
+        <v>94218</v>
       </c>
       <c r="E146" s="6">
         <v>2019</v>
@@ -4714,17 +4959,17 @@
       <c r="J146" s="2"/>
     </row>
     <row r="147" spans="1:10" ht="21">
-      <c r="A147" s="5" t="s">
-        <v>136</v>
+      <c r="A147" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="B147" s="3">
-        <v>41655</v>
+        <v>58900</v>
       </c>
       <c r="C147" s="3">
-        <v>37253</v>
+        <v>52678</v>
       </c>
       <c r="D147" s="3">
-        <v>4402</v>
+        <v>6223</v>
       </c>
       <c r="E147" s="6">
         <v>2019</v>
@@ -4738,17 +4983,17 @@
       <c r="J147" s="2"/>
     </row>
     <row r="148" spans="1:10" ht="21">
-      <c r="A148" s="5" t="s">
-        <v>137</v>
+      <c r="A148" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="B148" s="3">
-        <v>113645</v>
+        <v>160743</v>
       </c>
       <c r="C148" s="3">
-        <v>83294</v>
+        <v>117803</v>
       </c>
       <c r="D148" s="3">
-        <v>30352</v>
+        <v>42941</v>
       </c>
       <c r="E148" s="6">
         <v>2019</v>
@@ -4762,17 +5007,17 @@
       <c r="J148" s="2"/>
     </row>
     <row r="149" spans="1:10" ht="21">
-      <c r="A149" s="5" t="s">
-        <v>138</v>
+      <c r="A149" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="B149" s="3">
-        <v>13574</v>
+        <v>19223</v>
       </c>
       <c r="C149" s="3">
-        <v>8546</v>
+        <v>12084</v>
       </c>
       <c r="D149" s="3">
-        <v>5028</v>
+        <v>7139</v>
       </c>
       <c r="E149" s="6">
         <v>2019</v>
@@ -4786,17 +5031,17 @@
       <c r="J149" s="2"/>
     </row>
     <row r="150" spans="1:10" ht="21">
-      <c r="A150" s="5" t="s">
-        <v>139</v>
+      <c r="A150" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="B150" s="3">
-        <v>7110702</v>
+        <v>10055881</v>
       </c>
       <c r="C150" s="3">
-        <v>3201185</v>
+        <v>4527842</v>
       </c>
       <c r="D150" s="3">
-        <v>3909516</v>
+        <v>5528038</v>
       </c>
       <c r="E150" s="6">
         <v>2019</v>
@@ -4810,17 +5055,17 @@
       <c r="J150" s="2"/>
     </row>
     <row r="151" spans="1:10" ht="21">
-      <c r="A151" s="5" t="s">
-        <v>235</v>
+      <c r="A151" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="B151" s="3">
-        <v>678043</v>
+        <v>959089</v>
       </c>
       <c r="C151" s="3">
-        <v>404307</v>
+        <v>571667</v>
       </c>
       <c r="D151" s="3">
-        <v>273736</v>
+        <v>387422</v>
       </c>
       <c r="E151" s="6">
         <v>2019</v>
@@ -4834,17 +5079,17 @@
       <c r="J151" s="2"/>
     </row>
     <row r="152" spans="1:10" ht="21">
-      <c r="A152" s="5" t="s">
-        <v>236</v>
+      <c r="A152" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="B152" s="3">
-        <v>226055</v>
+        <v>319884</v>
       </c>
       <c r="C152" s="3">
-        <v>194222</v>
+        <v>274716</v>
       </c>
       <c r="D152" s="3">
-        <v>31833</v>
+        <v>45169</v>
       </c>
       <c r="E152" s="6">
         <v>2019</v>
@@ -4858,17 +5103,17 @@
       <c r="J152" s="2"/>
     </row>
     <row r="153" spans="1:10" ht="21">
-      <c r="A153" s="5" t="s">
-        <v>140</v>
+      <c r="A153" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="B153" s="3">
-        <v>75373</v>
+        <v>106665</v>
       </c>
       <c r="C153" s="3">
-        <v>67173</v>
+        <v>95017</v>
       </c>
       <c r="D153" s="3">
-        <v>8201</v>
+        <v>11648</v>
       </c>
       <c r="E153" s="6">
         <v>2019</v>
@@ -4882,17 +5127,17 @@
       <c r="J153" s="2"/>
     </row>
     <row r="154" spans="1:10" ht="21">
-      <c r="A154" s="5" t="s">
-        <v>141</v>
+      <c r="A154" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="B154" s="3">
-        <v>1208679</v>
+        <v>1710509</v>
       </c>
       <c r="C154" s="3">
-        <v>920482</v>
+        <v>1301493</v>
       </c>
       <c r="D154" s="3">
-        <v>288197</v>
+        <v>409016</v>
       </c>
       <c r="E154" s="6">
         <v>2019</v>
@@ -4906,17 +5151,17 @@
       <c r="J154" s="2"/>
     </row>
     <row r="155" spans="1:10" ht="21">
-      <c r="A155" s="5" t="s">
-        <v>142</v>
+      <c r="A155" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="B155" s="3">
-        <v>531683</v>
+        <v>752948</v>
       </c>
       <c r="C155" s="3">
-        <v>151137</v>
+        <v>213935</v>
       </c>
       <c r="D155" s="3">
-        <v>380546</v>
+        <v>539013</v>
       </c>
       <c r="E155" s="6">
         <v>2019</v>
@@ -4930,17 +5175,17 @@
       <c r="J155" s="2"/>
     </row>
     <row r="156" spans="1:10" ht="21">
-      <c r="A156" s="5" t="s">
-        <v>237</v>
+      <c r="A156" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="B156" s="3">
-        <v>23018</v>
+        <v>32687</v>
       </c>
       <c r="C156" s="3">
-        <v>11544</v>
+        <v>16407</v>
       </c>
       <c r="D156" s="3">
-        <v>11474</v>
+        <v>16280</v>
       </c>
       <c r="E156" s="6">
         <v>2019</v>
@@ -4954,17 +5199,17 @@
       <c r="J156" s="2"/>
     </row>
     <row r="157" spans="1:10" ht="21">
-      <c r="A157" s="5" t="s">
-        <v>143</v>
+      <c r="A157" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="B157" s="3">
-        <v>11336</v>
+        <v>16057</v>
       </c>
       <c r="C157" s="3">
-        <v>4641</v>
+        <v>6564</v>
       </c>
       <c r="D157" s="3">
-        <v>6695</v>
+        <v>9494</v>
       </c>
       <c r="E157" s="6">
         <v>2019</v>
@@ -4978,8 +5223,8 @@
       <c r="J157" s="2"/>
     </row>
     <row r="158" spans="1:10" ht="21">
-      <c r="A158" s="5" t="s">
-        <v>144</v>
+      <c r="A158" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="B158" s="2">
         <v>0</v>
@@ -4988,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E158" s="6">
         <v>2019</v>
@@ -5002,17 +5247,17 @@
       <c r="J158" s="2"/>
     </row>
     <row r="159" spans="1:10" ht="21">
-      <c r="A159" s="5" t="s">
-        <v>145</v>
+      <c r="A159" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="B159" s="3">
-        <v>10797</v>
+        <v>15262</v>
       </c>
       <c r="C159" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D159" s="3">
-        <v>10775</v>
+        <v>15231</v>
       </c>
       <c r="E159" s="6">
         <v>2019</v>
@@ -5026,17 +5271,17 @@
       <c r="J159" s="2"/>
     </row>
     <row r="160" spans="1:10" ht="21">
-      <c r="A160" s="5" t="s">
-        <v>146</v>
+      <c r="A160" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="B160" s="3">
-        <v>91741</v>
+        <v>129953</v>
       </c>
       <c r="C160" s="3">
-        <v>61066</v>
+        <v>86485</v>
       </c>
       <c r="D160" s="3">
-        <v>30675</v>
+        <v>43468</v>
       </c>
       <c r="E160" s="6">
         <v>2019</v>
@@ -5050,17 +5295,17 @@
       <c r="J160" s="2"/>
     </row>
     <row r="161" spans="1:10" ht="21">
-      <c r="A161" s="5" t="s">
-        <v>147</v>
+      <c r="A161" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="B161" s="3">
-        <v>11475</v>
+        <v>16225</v>
       </c>
       <c r="C161" s="3">
-        <v>6209</v>
+        <v>8778</v>
       </c>
       <c r="D161" s="3">
-        <v>5266</v>
+        <v>7447</v>
       </c>
       <c r="E161" s="6">
         <v>2019</v>
@@ -5074,17 +5319,17 @@
       <c r="J161" s="2"/>
     </row>
     <row r="162" spans="1:10" ht="21">
-      <c r="A162" s="5" t="s">
-        <v>238</v>
+      <c r="A162" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B162" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
       </c>
       <c r="D162" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E162" s="6">
         <v>2019</v>
@@ -5098,17 +5343,17 @@
       <c r="J162" s="2"/>
     </row>
     <row r="163" spans="1:10" ht="21">
-      <c r="A163" s="5" t="s">
-        <v>148</v>
+      <c r="A163" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="B163" s="3">
-        <v>19339671</v>
+        <v>27354050</v>
       </c>
       <c r="C163" s="3">
-        <v>8860586</v>
+        <v>12534390</v>
       </c>
       <c r="D163" s="3">
-        <v>10479085</v>
+        <v>14819660</v>
       </c>
       <c r="E163" s="6">
         <v>2019</v>
@@ -5122,14 +5367,14 @@
       <c r="J163" s="2"/>
     </row>
     <row r="164" spans="1:10" ht="21">
-      <c r="A164" s="5" t="s">
-        <v>149</v>
+      <c r="A164" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="B164" s="3">
-        <v>3184</v>
+        <v>4527</v>
       </c>
       <c r="C164" s="3">
-        <v>3184</v>
+        <v>4527</v>
       </c>
       <c r="D164" s="2">
         <v>0</v>
@@ -5146,17 +5391,17 @@
       <c r="J164" s="2"/>
     </row>
     <row r="165" spans="1:10" ht="21">
-      <c r="A165" s="5" t="s">
-        <v>150</v>
+      <c r="A165" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="B165" s="3">
-        <v>989803</v>
+        <v>1399653</v>
       </c>
       <c r="C165" s="3">
-        <v>323640</v>
+        <v>457544</v>
       </c>
       <c r="D165" s="3">
-        <v>666162</v>
+        <v>942108</v>
       </c>
       <c r="E165" s="6">
         <v>2019</v>
@@ -5170,17 +5415,17 @@
       <c r="J165" s="2"/>
     </row>
     <row r="166" spans="1:10" ht="21">
-      <c r="A166" s="5" t="s">
-        <v>151</v>
+      <c r="A166" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="B166" s="3">
-        <v>3038</v>
+        <v>4297</v>
       </c>
       <c r="C166" s="3">
-        <v>3036</v>
+        <v>4294</v>
       </c>
       <c r="D166" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E166" s="6">
         <v>2019</v>
@@ -5194,17 +5439,17 @@
       <c r="J166" s="2"/>
     </row>
     <row r="167" spans="1:10" ht="21">
-      <c r="A167" s="5" t="s">
-        <v>152</v>
+      <c r="A167" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="B167" s="3">
-        <v>60640</v>
+        <v>85973</v>
       </c>
       <c r="C167" s="3">
-        <v>41872</v>
+        <v>59443</v>
       </c>
       <c r="D167" s="3">
-        <v>18769</v>
+        <v>26530</v>
       </c>
       <c r="E167" s="6">
         <v>2019</v>
@@ -5218,17 +5463,17 @@
       <c r="J167" s="2"/>
     </row>
     <row r="168" spans="1:10" ht="21">
-      <c r="A168" s="5" t="s">
-        <v>153</v>
+      <c r="A168" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="B168" s="3">
-        <v>25240</v>
+        <v>35709</v>
       </c>
       <c r="C168" s="3">
-        <v>23912</v>
+        <v>33832</v>
       </c>
       <c r="D168" s="3">
-        <v>1328</v>
+        <v>1877</v>
       </c>
       <c r="E168" s="6">
         <v>2019</v>
@@ -5242,14 +5487,14 @@
       <c r="J168" s="2"/>
     </row>
     <row r="169" spans="1:10" ht="21">
-      <c r="A169" s="5" t="s">
-        <v>154</v>
+      <c r="A169" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="B169" s="3">
-        <v>6172</v>
+        <v>8731</v>
       </c>
       <c r="C169" s="3">
-        <v>6171</v>
+        <v>8730</v>
       </c>
       <c r="D169" s="2">
         <v>1</v>
@@ -5266,17 +5511,17 @@
       <c r="J169" s="2"/>
     </row>
     <row r="170" spans="1:10" ht="21">
-      <c r="A170" s="5" t="s">
-        <v>155</v>
+      <c r="A170" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="B170" s="3">
-        <v>62875</v>
+        <v>88902</v>
       </c>
       <c r="C170" s="3">
-        <v>41563</v>
+        <v>58761</v>
       </c>
       <c r="D170" s="3">
-        <v>21313</v>
+        <v>30141</v>
       </c>
       <c r="E170" s="6">
         <v>2019</v>
@@ -5290,8 +5535,8 @@
       <c r="J170" s="2"/>
     </row>
     <row r="171" spans="1:10" ht="21">
-      <c r="A171" s="5" t="s">
-        <v>156</v>
+      <c r="A171" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="B171" s="2">
         <v>1</v>
@@ -5300,7 +5545,7 @@
         <v>1</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E171" s="6">
         <v>2019</v>
@@ -5314,17 +5559,17 @@
       <c r="J171" s="2"/>
     </row>
     <row r="172" spans="1:10" ht="21">
-      <c r="A172" s="5" t="s">
-        <v>157</v>
+      <c r="A172" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="B172" s="3">
-        <v>7160688</v>
+        <v>10125875</v>
       </c>
       <c r="C172" s="3">
-        <v>2005140</v>
+        <v>2835344</v>
       </c>
       <c r="D172" s="3">
-        <v>5155548</v>
+        <v>7290531</v>
       </c>
       <c r="E172" s="6">
         <v>2019</v>
@@ -5338,14 +5583,14 @@
       <c r="J172" s="2"/>
     </row>
     <row r="173" spans="1:10" ht="21">
-      <c r="A173" s="5" t="s">
-        <v>158</v>
+      <c r="A173" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="B173" s="3">
-        <v>5185</v>
+        <v>7395</v>
       </c>
       <c r="C173" s="3">
-        <v>5185</v>
+        <v>7395</v>
       </c>
       <c r="D173" s="2">
         <v>0</v>
@@ -5362,17 +5607,17 @@
       <c r="J173" s="2"/>
     </row>
     <row r="174" spans="1:10" ht="21">
-      <c r="A174" s="5" t="s">
-        <v>159</v>
+      <c r="A174" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="B174" s="3">
-        <v>2480398</v>
+        <v>3508350</v>
       </c>
       <c r="C174" s="3">
-        <v>775784</v>
+        <v>1097175</v>
       </c>
       <c r="D174" s="3">
-        <v>1704614</v>
+        <v>2411175</v>
       </c>
       <c r="E174" s="6">
         <v>2019</v>
@@ -5386,17 +5631,17 @@
       <c r="J174" s="2"/>
     </row>
     <row r="175" spans="1:10" ht="21">
-      <c r="A175" s="5" t="s">
-        <v>160</v>
+      <c r="A175" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="B175" s="3">
-        <v>903352</v>
+        <v>1277109</v>
       </c>
       <c r="C175" s="3">
-        <v>566244</v>
+        <v>800538</v>
       </c>
       <c r="D175" s="3">
-        <v>337108</v>
+        <v>476571</v>
       </c>
       <c r="E175" s="6">
         <v>2019</v>
@@ -5410,17 +5655,17 @@
       <c r="J175" s="2"/>
     </row>
     <row r="176" spans="1:10" ht="21">
-      <c r="A176" s="5" t="s">
-        <v>161</v>
+      <c r="A176" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="B176" s="3">
-        <v>2369</v>
+        <v>3349</v>
       </c>
       <c r="C176" s="3">
-        <v>2345</v>
+        <v>3316</v>
       </c>
       <c r="D176" s="2">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E176" s="6">
         <v>2019</v>
@@ -5434,17 +5679,17 @@
       <c r="J176" s="2"/>
     </row>
     <row r="177" spans="1:10" ht="21">
-      <c r="A177" s="5" t="s">
-        <v>162</v>
+      <c r="A177" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="B177" s="3">
-        <v>149078</v>
+        <v>210790</v>
       </c>
       <c r="C177" s="3">
-        <v>96385</v>
+        <v>136259</v>
       </c>
       <c r="D177" s="3">
-        <v>52692</v>
+        <v>74531</v>
       </c>
       <c r="E177" s="6">
         <v>2019</v>
@@ -5458,17 +5703,17 @@
       <c r="J177" s="2"/>
     </row>
     <row r="178" spans="1:10" ht="21">
-      <c r="A178" s="5" t="s">
-        <v>163</v>
+      <c r="A178" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="B178" s="3">
-        <v>62639</v>
+        <v>88754</v>
       </c>
       <c r="C178" s="3">
-        <v>51247</v>
+        <v>72644</v>
       </c>
       <c r="D178" s="3">
-        <v>11392</v>
+        <v>16110</v>
       </c>
       <c r="E178" s="6">
         <v>2019</v>
@@ -5482,14 +5727,14 @@
       <c r="J178" s="2"/>
     </row>
     <row r="179" spans="1:10" ht="21">
-      <c r="A179" s="5" t="s">
-        <v>164</v>
+      <c r="A179" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="B179" s="3">
-        <v>1724</v>
+        <v>2437</v>
       </c>
       <c r="C179" s="3">
-        <v>1724</v>
+        <v>2437</v>
       </c>
       <c r="D179" s="2">
         <v>0</v>
@@ -5506,17 +5751,17 @@
       <c r="J179" s="2"/>
     </row>
     <row r="180" spans="1:10" ht="21">
-      <c r="A180" s="5" t="s">
-        <v>165</v>
+      <c r="A180" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="B180" s="3">
-        <v>155465</v>
+        <v>219811</v>
       </c>
       <c r="C180" s="3">
-        <v>133517</v>
+        <v>188764</v>
       </c>
       <c r="D180" s="3">
-        <v>21948</v>
+        <v>31047</v>
       </c>
       <c r="E180" s="6">
         <v>2019</v>
@@ -5530,17 +5775,17 @@
       <c r="J180" s="2"/>
     </row>
     <row r="181" spans="1:10" ht="21">
-      <c r="A181" s="5" t="s">
-        <v>166</v>
+      <c r="A181" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="B181" s="3">
-        <v>480590</v>
+        <v>679554</v>
       </c>
       <c r="C181" s="3">
-        <v>257002</v>
+        <v>363453</v>
       </c>
       <c r="D181" s="3">
-        <v>223588</v>
+        <v>316101</v>
       </c>
       <c r="E181" s="6">
         <v>2019</v>
@@ -5554,17 +5799,17 @@
       <c r="J181" s="2"/>
     </row>
     <row r="182" spans="1:10" ht="21">
-      <c r="A182" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B182" s="2">
-        <v>926</v>
-      </c>
-      <c r="C182" s="2">
-        <v>925</v>
+      <c r="A182" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B182" s="3">
+        <v>1308</v>
+      </c>
+      <c r="C182" s="3">
+        <v>1308</v>
       </c>
       <c r="D182" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E182" s="6">
         <v>2019</v>
@@ -5578,14 +5823,14 @@
       <c r="J182" s="2"/>
     </row>
     <row r="183" spans="1:10" ht="21">
-      <c r="A183" s="5" t="s">
-        <v>168</v>
+      <c r="A183" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="B183" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C183" s="2">
-        <v>999</v>
+        <v>1413</v>
+      </c>
+      <c r="C183" s="3">
+        <v>1413</v>
       </c>
       <c r="D183" s="2">
         <v>0</v>
@@ -5602,14 +5847,14 @@
       <c r="J183" s="2"/>
     </row>
     <row r="184" spans="1:10" ht="21">
-      <c r="A184" s="5" t="s">
-        <v>169</v>
+      <c r="A184" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="B184" s="3">
-        <v>3212</v>
+        <v>4542</v>
       </c>
       <c r="C184" s="3">
-        <v>3211</v>
+        <v>4541</v>
       </c>
       <c r="D184" s="2">
         <v>1</v>
@@ -5626,17 +5871,17 @@
       <c r="J184" s="2"/>
     </row>
     <row r="185" spans="1:10" ht="21">
-      <c r="A185" s="5" t="s">
-        <v>170</v>
+      <c r="A185" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="B185" s="3">
-        <v>169843</v>
+        <v>240116</v>
       </c>
       <c r="C185" s="3">
-        <v>165318</v>
+        <v>233719</v>
       </c>
       <c r="D185" s="3">
-        <v>4525</v>
+        <v>6397</v>
       </c>
       <c r="E185" s="6">
         <v>2019</v>
@@ -5650,17 +5895,17 @@
       <c r="J185" s="2"/>
     </row>
     <row r="186" spans="1:10" ht="21">
-      <c r="A186" s="5" t="s">
-        <v>171</v>
+      <c r="A186" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="B186" s="3">
-        <v>17040</v>
+        <v>24094</v>
       </c>
       <c r="C186" s="3">
-        <v>15024</v>
+        <v>21244</v>
       </c>
       <c r="D186" s="3">
-        <v>2016</v>
+        <v>2850</v>
       </c>
       <c r="E186" s="6">
         <v>2019</v>
@@ -5674,17 +5919,17 @@
       <c r="J186" s="2"/>
     </row>
     <row r="187" spans="1:10" ht="21">
-      <c r="A187" s="5" t="s">
-        <v>172</v>
+      <c r="A187" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B187" s="3">
-        <v>28277</v>
+        <v>39975</v>
       </c>
       <c r="C187" s="3">
-        <v>28051</v>
+        <v>39655</v>
       </c>
       <c r="D187" s="2">
-        <v>226</v>
+        <v>320</v>
       </c>
       <c r="E187" s="6">
         <v>2019</v>
@@ -5698,17 +5943,17 @@
       <c r="J187" s="2"/>
     </row>
     <row r="188" spans="1:10" ht="21">
-      <c r="A188" s="5" t="s">
-        <v>173</v>
+      <c r="A188" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="B188" s="3">
-        <v>58816</v>
+        <v>83157</v>
       </c>
       <c r="C188" s="3">
-        <v>57254</v>
+        <v>80942</v>
       </c>
       <c r="D188" s="3">
-        <v>1562</v>
+        <v>2215</v>
       </c>
       <c r="E188" s="6">
         <v>2019</v>
@@ -5722,17 +5967,17 @@
       <c r="J188" s="2"/>
     </row>
     <row r="189" spans="1:10" ht="21">
-      <c r="A189" s="5" t="s">
-        <v>174</v>
+      <c r="A189" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="B189" s="3">
-        <v>41521</v>
+        <v>58702</v>
       </c>
       <c r="C189" s="3">
-        <v>40519</v>
+        <v>57284</v>
       </c>
       <c r="D189" s="3">
-        <v>1003</v>
+        <v>1418</v>
       </c>
       <c r="E189" s="6">
         <v>2019</v>
@@ -5746,17 +5991,17 @@
       <c r="J189" s="2"/>
     </row>
     <row r="190" spans="1:10" ht="21">
-      <c r="A190" s="5" t="s">
-        <v>175</v>
+      <c r="A190" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="B190" s="3">
-        <v>2069</v>
+        <v>2924</v>
       </c>
       <c r="C190" s="3">
-        <v>2066</v>
+        <v>2921</v>
       </c>
       <c r="D190" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E190" s="6">
         <v>2019</v>
@@ -5770,17 +6015,17 @@
       <c r="J190" s="2"/>
     </row>
     <row r="191" spans="1:10" ht="21">
-      <c r="A191" s="5" t="s">
-        <v>176</v>
+      <c r="A191" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="B191" s="3">
-        <v>3605078</v>
+        <v>5097844</v>
       </c>
       <c r="C191" s="3">
-        <v>2654975</v>
+        <v>3753745</v>
       </c>
       <c r="D191" s="3">
-        <v>950103</v>
+        <v>1344099</v>
       </c>
       <c r="E191" s="6">
         <v>2019</v>
@@ -5794,14 +6039,14 @@
       <c r="J191" s="2"/>
     </row>
     <row r="192" spans="1:10" ht="21">
-      <c r="A192" s="5" t="s">
-        <v>177</v>
+      <c r="A192" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="B192" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C192" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D192" s="2">
         <v>0</v>
@@ -5818,17 +6063,17 @@
       <c r="J192" s="2"/>
     </row>
     <row r="193" spans="1:10" ht="21">
-      <c r="A193" s="5" t="s">
-        <v>178</v>
+      <c r="A193" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="B193" s="3">
-        <v>31541</v>
+        <v>44604</v>
       </c>
       <c r="C193" s="3">
-        <v>29072</v>
+        <v>41110</v>
       </c>
       <c r="D193" s="3">
-        <v>2470</v>
+        <v>3495</v>
       </c>
       <c r="E193" s="6">
         <v>2019</v>
@@ -5842,17 +6087,17 @@
       <c r="J193" s="2"/>
     </row>
     <row r="194" spans="1:10" ht="21">
-      <c r="A194" s="5" t="s">
-        <v>179</v>
+      <c r="A194" s="8" t="s">
+        <v>198</v>
       </c>
       <c r="B194" s="3">
-        <v>640526</v>
+        <v>910718</v>
       </c>
       <c r="C194" s="3">
-        <v>593186</v>
+        <v>843797</v>
       </c>
       <c r="D194" s="3">
-        <v>47340</v>
+        <v>66921</v>
       </c>
       <c r="E194" s="6">
         <v>2019</v>
@@ -5866,17 +6111,17 @@
       <c r="J194" s="2"/>
     </row>
     <row r="195" spans="1:10" ht="21">
-      <c r="A195" s="5" t="s">
-        <v>180</v>
+      <c r="A195" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="B195" s="3">
-        <v>82967</v>
+        <v>117299</v>
       </c>
       <c r="C195" s="3">
-        <v>82123</v>
-      </c>
-      <c r="D195" s="2">
-        <v>845</v>
+        <v>116105</v>
+      </c>
+      <c r="D195" s="3">
+        <v>1194</v>
       </c>
       <c r="E195" s="6">
         <v>2019</v>
@@ -5890,17 +6135,17 @@
       <c r="J195" s="2"/>
     </row>
     <row r="196" spans="1:10" ht="21">
-      <c r="A196" s="5" t="s">
-        <v>181</v>
+      <c r="A196" s="8" t="s">
+        <v>200</v>
       </c>
       <c r="B196" s="3">
-        <v>1385418</v>
+        <v>1958934</v>
       </c>
       <c r="C196" s="3">
-        <v>503898</v>
+        <v>712457</v>
       </c>
       <c r="D196" s="3">
-        <v>881520</v>
+        <v>1246478</v>
       </c>
       <c r="E196" s="6">
         <v>2019</v>
@@ -5914,17 +6159,17 @@
       <c r="J196" s="2"/>
     </row>
     <row r="197" spans="1:10" ht="21">
-      <c r="A197" s="5" t="s">
-        <v>239</v>
+      <c r="A197" s="8" t="s">
+        <v>201</v>
       </c>
       <c r="B197" s="3">
-        <v>92109</v>
+        <v>130382</v>
       </c>
       <c r="C197" s="3">
-        <v>36083</v>
+        <v>51010</v>
       </c>
       <c r="D197" s="3">
-        <v>56026</v>
+        <v>79372</v>
       </c>
       <c r="E197" s="6">
         <v>2019</v>
@@ -5938,8 +6183,8 @@
       <c r="J197" s="2"/>
     </row>
     <row r="198" spans="1:10" ht="21">
-      <c r="A198" s="5" t="s">
-        <v>240</v>
+      <c r="A198" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="B198" s="2">
         <v>0</v>
@@ -5948,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E198" s="6">
         <v>2019</v>
@@ -5962,17 +6207,17 @@
       <c r="J198" s="2"/>
     </row>
     <row r="199" spans="1:10" ht="21">
-      <c r="A199" s="5" t="s">
-        <v>182</v>
+      <c r="A199" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="B199" s="3">
-        <v>1368</v>
+        <v>1935</v>
       </c>
       <c r="C199" s="3">
-        <v>1367</v>
+        <v>1933</v>
       </c>
       <c r="D199" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E199" s="6">
         <v>2019</v>
@@ -5986,17 +6231,17 @@
       <c r="J199" s="2"/>
     </row>
     <row r="200" spans="1:10" ht="21">
-      <c r="A200" s="5" t="s">
-        <v>183</v>
+      <c r="A200" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="B200" s="2">
-        <v>474</v>
+        <v>671</v>
       </c>
       <c r="C200" s="2">
-        <v>474</v>
+        <v>671</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E200" s="6">
         <v>2019</v>
@@ -6010,17 +6255,17 @@
       <c r="J200" s="2"/>
     </row>
     <row r="201" spans="1:10" ht="21">
-      <c r="A201" s="5" t="s">
-        <v>184</v>
+      <c r="A201" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="B201" s="3">
-        <v>1205</v>
+        <v>1715</v>
       </c>
       <c r="C201" s="3">
-        <v>1205</v>
+        <v>1715</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E201" s="6">
         <v>2019</v>
@@ -6034,17 +6279,17 @@
       <c r="J201" s="2"/>
     </row>
     <row r="202" spans="1:10" ht="21">
-      <c r="A202" s="5" t="s">
-        <v>185</v>
+      <c r="A202" s="8" t="s">
+        <v>206</v>
       </c>
       <c r="B202" s="3">
-        <v>58711</v>
+        <v>83005</v>
       </c>
       <c r="C202" s="3">
-        <v>53797</v>
+        <v>76051</v>
       </c>
       <c r="D202" s="3">
-        <v>4915</v>
+        <v>6953</v>
       </c>
       <c r="E202" s="6">
         <v>2019</v>
@@ -6058,17 +6303,17 @@
       <c r="J202" s="2"/>
     </row>
     <row r="203" spans="1:10" ht="21">
-      <c r="A203" s="5" t="s">
-        <v>241</v>
+      <c r="A203" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="B203" s="3">
-        <v>16118</v>
+        <v>22785</v>
       </c>
       <c r="C203" s="3">
-        <v>13964</v>
+        <v>19740</v>
       </c>
       <c r="D203" s="3">
-        <v>2154</v>
+        <v>3045</v>
       </c>
       <c r="E203" s="6">
         <v>2019</v>
@@ -6082,17 +6327,17 @@
       <c r="J203" s="2"/>
     </row>
     <row r="204" spans="1:10" ht="21">
-      <c r="A204" s="5" t="s">
-        <v>186</v>
+      <c r="A204" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="B204" s="3">
-        <v>91231</v>
+        <v>128959</v>
       </c>
       <c r="C204" s="3">
-        <v>20560</v>
+        <v>29065</v>
       </c>
       <c r="D204" s="3">
-        <v>70671</v>
+        <v>99894</v>
       </c>
       <c r="E204" s="6">
         <v>2019</v>
@@ -6106,14 +6351,14 @@
       <c r="J204" s="2"/>
     </row>
     <row r="205" spans="1:10" ht="21">
-      <c r="A205" s="5" t="s">
-        <v>187</v>
+      <c r="A205" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="B205" s="2">
-        <v>223</v>
+        <v>315</v>
       </c>
       <c r="C205" s="2">
-        <v>223</v>
+        <v>315</v>
       </c>
       <c r="D205" s="2">
         <v>0</v>
@@ -6130,17 +6375,17 @@
       <c r="J205" s="2"/>
     </row>
     <row r="206" spans="1:10" ht="21">
-      <c r="A206" s="5" t="s">
-        <v>242</v>
+      <c r="A206" s="8" t="s">
+        <v>210</v>
       </c>
       <c r="B206" s="3">
-        <v>324830</v>
+        <v>459284</v>
       </c>
       <c r="C206" s="3">
-        <v>106229</v>
+        <v>150188</v>
       </c>
       <c r="D206" s="3">
-        <v>218601</v>
+        <v>309097</v>
       </c>
       <c r="E206" s="6">
         <v>2019</v>
@@ -6154,17 +6399,17 @@
       <c r="J206" s="2"/>
     </row>
     <row r="207" spans="1:10" ht="21">
-      <c r="A207" s="5" t="s">
-        <v>188</v>
+      <c r="A207" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="B207" s="3">
-        <v>129612</v>
+        <v>183747</v>
       </c>
       <c r="C207" s="3">
-        <v>109031</v>
+        <v>154652</v>
       </c>
       <c r="D207" s="3">
-        <v>20581</v>
+        <v>29095</v>
       </c>
       <c r="E207" s="6">
         <v>2019</v>
@@ -6178,14 +6423,14 @@
       <c r="J207" s="2"/>
     </row>
     <row r="208" spans="1:10" ht="21">
-      <c r="A208" s="5" t="s">
-        <v>189</v>
+      <c r="A208" s="8" t="s">
+        <v>212</v>
       </c>
       <c r="B208" s="3">
-        <v>1421</v>
+        <v>2009</v>
       </c>
       <c r="C208" s="3">
-        <v>1420</v>
+        <v>2008</v>
       </c>
       <c r="D208" s="2">
         <v>1</v>
@@ -6202,17 +6447,17 @@
       <c r="J208" s="2"/>
     </row>
     <row r="209" spans="1:10" ht="21">
-      <c r="A209" s="5" t="s">
-        <v>190</v>
+      <c r="A209" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="B209" s="2">
-        <v>440</v>
+        <v>622</v>
       </c>
       <c r="C209" s="2">
-        <v>405</v>
+        <v>573</v>
       </c>
       <c r="D209" s="2">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E209" s="6">
         <v>2019</v>
@@ -6226,14 +6471,14 @@
       <c r="J209" s="2"/>
     </row>
     <row r="210" spans="1:10" ht="21">
-      <c r="A210" s="5" t="s">
-        <v>191</v>
+      <c r="A210" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="B210" s="2">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C210" s="2">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D210" s="2">
         <v>0</v>
@@ -6250,14 +6495,14 @@
       <c r="J210" s="2"/>
     </row>
     <row r="211" spans="1:10" ht="21">
-      <c r="A211" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B211" s="2">
-        <v>720</v>
-      </c>
-      <c r="C211" s="2">
-        <v>720</v>
+      <c r="A211" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B211" s="3">
+        <v>1018</v>
+      </c>
+      <c r="C211" s="3">
+        <v>1018</v>
       </c>
       <c r="D211" s="2">
         <v>0</v>
@@ -6274,17 +6519,17 @@
       <c r="J211" s="2"/>
     </row>
     <row r="212" spans="1:10" ht="21">
-      <c r="A212" s="5" t="s">
-        <v>193</v>
+      <c r="A212" s="8" t="s">
+        <v>216</v>
       </c>
       <c r="B212" s="2">
-        <v>503</v>
+        <v>711</v>
       </c>
       <c r="C212" s="2">
-        <v>503</v>
+        <v>711</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E212" s="6">
         <v>2019</v>
@@ -6298,17 +6543,17 @@
       <c r="J212" s="2"/>
     </row>
     <row r="213" spans="1:10" ht="21">
-      <c r="A213" s="5" t="s">
-        <v>194</v>
+      <c r="A213" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="B213" s="3">
-        <v>36279605</v>
+        <v>51300315</v>
       </c>
       <c r="C213" s="3">
-        <v>27239642</v>
+        <v>38511446</v>
       </c>
       <c r="D213" s="3">
-        <v>9039963</v>
+        <v>12788870</v>
       </c>
       <c r="E213" s="6">
         <v>2019</v>
@@ -6322,17 +6567,17 @@
       <c r="J213" s="2"/>
     </row>
     <row r="214" spans="1:10" ht="21">
-      <c r="A214" s="5" t="s">
-        <v>195</v>
+      <c r="A214" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="B214" s="3">
-        <v>3330197</v>
+        <v>4709049</v>
       </c>
       <c r="C214" s="3">
-        <v>2072356</v>
+        <v>2930117</v>
       </c>
       <c r="D214" s="3">
-        <v>1257841</v>
+        <v>1778932</v>
       </c>
       <c r="E214" s="6">
         <v>2019</v>
@@ -6346,17 +6591,17 @@
       <c r="J214" s="2"/>
     </row>
     <row r="215" spans="1:10" ht="21">
-      <c r="A215" s="5" t="s">
-        <v>196</v>
+      <c r="A215" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="B215" s="3">
-        <v>32919513</v>
+        <v>46548875</v>
       </c>
       <c r="C215" s="3">
-        <v>25165593</v>
+        <v>35578934</v>
       </c>
       <c r="D215" s="3">
-        <v>7753920</v>
+        <v>10969941</v>
       </c>
       <c r="E215" s="6">
         <v>2019</v>
@@ -6370,17 +6615,17 @@
       <c r="J215" s="2"/>
     </row>
     <row r="216" spans="1:10" ht="21">
-      <c r="A216" s="5" t="s">
-        <v>243</v>
+      <c r="A216" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="B216" s="3">
-        <v>28227</v>
+        <v>40033</v>
       </c>
       <c r="C216" s="2">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D216" s="3">
-        <v>28201</v>
+        <v>39996</v>
       </c>
       <c r="E216" s="6">
         <v>2019</v>
@@ -6394,14 +6639,14 @@
       <c r="J216" s="2"/>
     </row>
     <row r="217" spans="1:10" ht="21">
-      <c r="A217" s="5" t="s">
-        <v>197</v>
+      <c r="A217" s="8" t="s">
+        <v>221</v>
       </c>
       <c r="B217" s="3">
-        <v>1637</v>
+        <v>2314</v>
       </c>
       <c r="C217" s="3">
-        <v>1637</v>
+        <v>2314</v>
       </c>
       <c r="D217" s="2">
         <v>0</v>
@@ -6418,17 +6663,17 @@
       <c r="J217" s="2"/>
     </row>
     <row r="218" spans="1:10" ht="21">
-      <c r="A218" s="5" t="s">
-        <v>198</v>
+      <c r="A218" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="B218" s="2">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C218" s="2">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E218" s="6">
         <v>2019</v>
@@ -6442,17 +6687,17 @@
       <c r="J218" s="2"/>
     </row>
     <row r="219" spans="1:10" ht="21">
-      <c r="A219" s="5" t="s">
-        <v>244</v>
+      <c r="A219" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="B219" s="3">
-        <v>11174982</v>
+        <v>15820029</v>
       </c>
       <c r="C219" s="3">
-        <v>3991740</v>
+        <v>5652693</v>
       </c>
       <c r="D219" s="3">
-        <v>7183242</v>
+        <v>10167336</v>
       </c>
       <c r="E219" s="6">
         <v>2019</v>
@@ -6466,17 +6711,17 @@
       <c r="J219" s="2"/>
     </row>
     <row r="220" spans="1:10" ht="21">
-      <c r="A220" s="5" t="s">
-        <v>245</v>
+      <c r="A220" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="B220" s="3">
-        <v>9420819</v>
+        <v>13336047</v>
       </c>
       <c r="C220" s="3">
-        <v>3281696</v>
+        <v>4646145</v>
       </c>
       <c r="D220" s="3">
-        <v>6139123</v>
+        <v>8689902</v>
       </c>
       <c r="E220" s="6">
         <v>2019</v>
@@ -6490,17 +6735,17 @@
       <c r="J220" s="2"/>
     </row>
     <row r="221" spans="1:10" ht="21">
-      <c r="A221" s="5" t="s">
-        <v>246</v>
+      <c r="A221" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="B221" s="2">
-        <v>340</v>
+        <v>481</v>
       </c>
       <c r="C221" s="2">
-        <v>307</v>
+        <v>434</v>
       </c>
       <c r="D221" s="2">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E221" s="6">
         <v>2019</v>
@@ -6514,17 +6759,17 @@
       <c r="J221" s="2"/>
     </row>
     <row r="222" spans="1:10" ht="21">
-      <c r="A222" s="5" t="s">
-        <v>199</v>
+      <c r="A222" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="B222" s="3">
-        <v>20942</v>
+        <v>29603</v>
       </c>
       <c r="C222" s="3">
-        <v>20392</v>
+        <v>28827</v>
       </c>
       <c r="D222" s="2">
-        <v>549</v>
+        <v>777</v>
       </c>
       <c r="E222" s="6">
         <v>2019</v>
@@ -6538,17 +6783,17 @@
       <c r="J222" s="2"/>
     </row>
     <row r="223" spans="1:10" ht="21">
-      <c r="A223" s="5" t="s">
-        <v>200</v>
+      <c r="A223" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="B223" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C223" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E223" s="6">
         <v>2019</v>
@@ -6562,17 +6807,17 @@
       <c r="J223" s="2"/>
     </row>
     <row r="224" spans="1:10" ht="21">
-      <c r="A224" s="5" t="s">
-        <v>201</v>
+      <c r="A224" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E224" s="6">
         <v>2019</v>
@@ -6586,17 +6831,17 @@
       <c r="J224" s="2"/>
     </row>
     <row r="225" spans="1:10" ht="21">
-      <c r="A225" s="5" t="s">
-        <v>247</v>
+      <c r="A225" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="B225" s="2">
-        <v>201</v>
+        <v>285</v>
       </c>
       <c r="C225" s="2">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c r="D225" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E225" s="6">
         <v>2019</v>
@@ -6610,17 +6855,17 @@
       <c r="J225" s="2"/>
     </row>
     <row r="226" spans="1:10" ht="21">
-      <c r="A226" s="5" t="s">
-        <v>202</v>
+      <c r="A226" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="B226" s="3">
-        <v>81612</v>
+        <v>115368</v>
       </c>
       <c r="C226" s="3">
-        <v>7012</v>
+        <v>9917</v>
       </c>
       <c r="D226" s="3">
-        <v>74599</v>
+        <v>105451</v>
       </c>
       <c r="E226" s="6">
         <v>2019</v>
@@ -6634,17 +6879,17 @@
       <c r="J226" s="2"/>
     </row>
     <row r="227" spans="1:10" ht="21">
-      <c r="A227" s="5" t="s">
-        <v>203</v>
+      <c r="A227" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="B227" s="3">
-        <v>9571</v>
+        <v>13561</v>
       </c>
       <c r="C227" s="3">
-        <v>8793</v>
-      </c>
-      <c r="D227" s="2">
-        <v>778</v>
+        <v>12461</v>
+      </c>
+      <c r="D227" s="3">
+        <v>1100</v>
       </c>
       <c r="E227" s="6">
         <v>2019</v>
@@ -6658,17 +6903,17 @@
       <c r="J227" s="2"/>
     </row>
     <row r="228" spans="1:10" ht="21">
-      <c r="A228" s="5" t="s">
-        <v>204</v>
+      <c r="A228" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="B228" s="3">
-        <v>1124775</v>
+        <v>1591684</v>
       </c>
       <c r="C228" s="3">
-        <v>383678</v>
+        <v>542585</v>
       </c>
       <c r="D228" s="3">
-        <v>741097</v>
+        <v>1049099</v>
       </c>
       <c r="E228" s="6">
         <v>2019</v>
@@ -6682,14 +6927,14 @@
       <c r="J228" s="2"/>
     </row>
     <row r="229" spans="1:10" ht="21">
-      <c r="A229" s="5" t="s">
-        <v>205</v>
+      <c r="A229" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="B229" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C229" s="2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D229" s="2">
         <v>0</v>
@@ -6706,17 +6951,17 @@
       <c r="J229" s="2"/>
     </row>
     <row r="230" spans="1:10" ht="21">
-      <c r="A230" s="5" t="s">
-        <v>248</v>
+      <c r="A230" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="B230" s="3">
-        <v>250198</v>
+        <v>353670</v>
       </c>
       <c r="C230" s="3">
-        <v>50120</v>
+        <v>70855</v>
       </c>
       <c r="D230" s="3">
-        <v>200078</v>
+        <v>282815</v>
       </c>
       <c r="E230" s="6">
         <v>2019</v>
@@ -6730,17 +6975,17 @@
       <c r="J230" s="2"/>
     </row>
     <row r="231" spans="1:10" ht="21">
-      <c r="A231" s="5" t="s">
-        <v>206</v>
+      <c r="A231" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="B231" s="2">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C231" s="2">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E231" s="6">
         <v>2019</v>
@@ -6754,17 +6999,17 @@
       <c r="J231" s="2"/>
     </row>
     <row r="232" spans="1:10" ht="21">
-      <c r="A232" s="5" t="s">
-        <v>207</v>
+      <c r="A232" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="B232" s="3">
-        <v>34083</v>
+        <v>48193</v>
       </c>
       <c r="C232" s="3">
-        <v>11908</v>
+        <v>16845</v>
       </c>
       <c r="D232" s="3">
-        <v>22176</v>
+        <v>31349</v>
       </c>
       <c r="E232" s="6">
         <v>2019</v>
@@ -6778,17 +7023,17 @@
       <c r="J232" s="2"/>
     </row>
     <row r="233" spans="1:10" ht="21">
-      <c r="A233" s="5" t="s">
-        <v>208</v>
+      <c r="A233" s="8" t="s">
+        <v>237</v>
       </c>
       <c r="B233" s="3">
-        <v>2177</v>
+        <v>3077</v>
       </c>
       <c r="C233" s="3">
-        <v>2177</v>
+        <v>3077</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E233" s="6">
         <v>2019</v>
@@ -6802,17 +7047,17 @@
       <c r="J233" s="2"/>
     </row>
     <row r="234" spans="1:10" ht="21">
-      <c r="A234" s="5" t="s">
-        <v>209</v>
+      <c r="A234" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E234" s="6">
         <v>2019</v>
@@ -6826,17 +7071,17 @@
       <c r="J234" s="2"/>
     </row>
     <row r="235" spans="1:10" ht="21">
-      <c r="A235" s="5" t="s">
-        <v>210</v>
+      <c r="A235" s="8" t="s">
+        <v>239</v>
       </c>
       <c r="B235" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C235" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E235" s="6">
         <v>2019</v>
@@ -6850,17 +7095,17 @@
       <c r="J235" s="2"/>
     </row>
     <row r="236" spans="1:10" ht="21">
-      <c r="A236" s="5" t="s">
-        <v>211</v>
+      <c r="A236" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="B236" s="3">
-        <v>5005</v>
+        <v>7081</v>
       </c>
       <c r="C236" s="3">
-        <v>4979</v>
+        <v>7044</v>
       </c>
       <c r="D236" s="2">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E236" s="6">
         <v>2019</v>
@@ -6874,14 +7119,14 @@
       <c r="J236" s="2"/>
     </row>
     <row r="237" spans="1:10" ht="21">
-      <c r="A237" s="5" t="s">
-        <v>212</v>
+      <c r="A237" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="B237" s="3">
-        <v>1532</v>
+        <v>2180</v>
       </c>
       <c r="C237" s="3">
-        <v>1532</v>
+        <v>2180</v>
       </c>
       <c r="D237" s="2">
         <v>0</v>
@@ -6898,17 +7143,17 @@
       <c r="J237" s="2"/>
     </row>
     <row r="238" spans="1:10" ht="21">
-      <c r="A238" s="5" t="s">
-        <v>213</v>
+      <c r="A238" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="B238" s="3">
-        <v>1384</v>
+        <v>1958</v>
       </c>
       <c r="C238" s="3">
-        <v>1384</v>
+        <v>1958</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E238" s="6">
         <v>2019</v>
@@ -6922,17 +7167,17 @@
       <c r="J238" s="2"/>
     </row>
     <row r="239" spans="1:10" ht="21">
-      <c r="A239" s="5" t="s">
-        <v>214</v>
+      <c r="A239" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="B239" s="3">
-        <v>3462</v>
+        <v>4894</v>
       </c>
       <c r="C239" s="3">
-        <v>1888</v>
+        <v>2669</v>
       </c>
       <c r="D239" s="3">
-        <v>1574</v>
+        <v>2225</v>
       </c>
       <c r="E239" s="6">
         <v>2019</v>
@@ -6946,17 +7191,17 @@
       <c r="J239" s="2"/>
     </row>
     <row r="240" spans="1:10" ht="21">
-      <c r="A240" s="5" t="s">
-        <v>215</v>
+      <c r="A240" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="B240" s="3">
-        <v>205299</v>
+        <v>292729</v>
       </c>
       <c r="C240" s="3">
-        <v>202533</v>
+        <v>288819</v>
       </c>
       <c r="D240" s="3">
-        <v>2767</v>
+        <v>3911</v>
       </c>
       <c r="E240" s="6">
         <v>2019</v>
@@ -6970,14 +7215,14 @@
       <c r="J240" s="2"/>
     </row>
     <row r="241" spans="1:10" ht="21">
-      <c r="A241" s="5" t="s">
-        <v>216</v>
+      <c r="A241" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="B241" s="3">
-        <v>2063</v>
+        <v>2916</v>
       </c>
       <c r="C241" s="3">
-        <v>2063</v>
+        <v>2916</v>
       </c>
       <c r="D241" s="2">
         <v>0</v>
@@ -6994,17 +7239,17 @@
       <c r="J241" s="2"/>
     </row>
     <row r="242" spans="1:10" ht="21">
-      <c r="A242" s="5" t="s">
-        <v>217</v>
+      <c r="A242" s="8" t="s">
+        <v>246</v>
       </c>
       <c r="B242" s="3">
-        <v>7411</v>
+        <v>10497</v>
       </c>
       <c r="C242" s="3">
-        <v>7019</v>
+        <v>9943</v>
       </c>
       <c r="D242" s="2">
-        <v>391</v>
+        <v>554</v>
       </c>
       <c r="E242" s="6">
         <v>2019</v>
@@ -7018,14 +7263,14 @@
       <c r="J242" s="2"/>
     </row>
     <row r="243" spans="1:10" ht="21">
-      <c r="A243" s="5" t="s">
-        <v>218</v>
+      <c r="A243" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="B243" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="C243" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D243" s="2">
         <v>0</v>
@@ -7042,17 +7287,17 @@
       <c r="J243" s="2"/>
     </row>
     <row r="244" spans="1:10" ht="21">
-      <c r="A244" s="5" t="s">
-        <v>249</v>
+      <c r="A244" s="8" t="s">
+        <v>248</v>
       </c>
       <c r="B244" s="3">
-        <v>3892</v>
+        <v>5498</v>
       </c>
       <c r="C244" s="3">
-        <v>3850</v>
+        <v>5439</v>
       </c>
       <c r="D244" s="2">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="E244" s="6">
         <v>2019</v>
@@ -7066,17 +7311,17 @@
       <c r="J244" s="2"/>
     </row>
     <row r="245" spans="1:10" ht="21">
-      <c r="A245" s="5" t="s">
-        <v>219</v>
+      <c r="A245" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="B245" s="3">
-        <v>40930</v>
+        <v>57868</v>
       </c>
       <c r="C245" s="2">
         <v>1</v>
       </c>
       <c r="D245" s="3">
-        <v>40929</v>
+        <v>57867</v>
       </c>
       <c r="E245" s="6">
         <v>2019</v>
